--- a/articulo-dyna/6.Comparativa GrPUBvsGrPRI.xlsx
+++ b/articulo-dyna/6.Comparativa GrPUBvsGrPRI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UVa\Mis estudios\Comparativa webs\2023-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6889CFCC-9700-4B7A-9F5D-811B5F48BC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6B721D-915B-4C8F-B625-8904982171FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="570" windowWidth="19440" windowHeight="15000" tabRatio="685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="685" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="6" r:id="rId1"/>
@@ -18,12 +18,10 @@
     <sheet name="Cumplimiento indicadores GrPUB" sheetId="3" r:id="rId3"/>
     <sheet name="Cumplimiento indicadores GrPRI" sheetId="4" r:id="rId4"/>
     <sheet name="Comp. cump. criterios" sheetId="7" r:id="rId5"/>
-    <sheet name="Comp. cump. criterios sin - P" sheetId="1" r:id="rId6"/>
-    <sheet name="Comp. cumplimiento nivel ad." sheetId="5" r:id="rId7"/>
+    <sheet name="Comp. cumplimiento nivel ad." sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Comp. cump. criterios'!$A$30:$O$50</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Comp. cump. criterios sin - P'!$A$27:$O$47</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'Comp. puntuación media'!$D$3</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Comp. puntuación media'!$D$4:$D$67</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Comp. puntuación media'!$H$3</definedName>
@@ -50,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3682" uniqueCount="265">
   <si>
     <t>Criterio</t>
   </si>
@@ -787,9 +785,6 @@
     <t>No válido:</t>
   </si>
   <si>
-    <t>Núm de - P</t>
-  </si>
-  <si>
     <t>1 P %</t>
   </si>
   <si>
@@ -823,9 +818,6 @@
     <t>Tabla comparativa del cumplmiento de los criterios en ambas muestras</t>
   </si>
   <si>
-    <t>Tabla resumen de los criterios cuya diferencia entre las 2 muestras supera el 30%</t>
-  </si>
-  <si>
     <t>Comp. cumplimiento nivel ad.</t>
   </si>
   <si>
@@ -847,7 +839,10 @@
     <t>- P %</t>
   </si>
   <si>
-    <t>Diferencia GrPRI-GrPUB</t>
+    <t>Tabla resumen de los criterios cuya diferencia entre las 2 muestras supera el 25%</t>
+  </si>
+  <si>
+    <t>Diferencia 0 F % GrPRI-GrPUB</t>
   </si>
 </sst>
 </file>
@@ -1548,15 +1543,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1632,12 +1618,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1840,25 +1839,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1897,21 +1881,6 @@
     <xf numFmtId="164" fontId="4" fillId="4" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="3" fillId="2" borderId="44" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1936,6 +1905,32 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="8" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1951,13 +1946,70 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1978,104 +2030,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="3" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="75">
+  <dxfs count="73">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2095,18 +2058,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -3210,49 +3161,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B9A33EC3-4FB7-4053-AF2B-6526040949A6}" name="Tabla15" displayName="Tabla15" ref="A1:AE65" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B9A33EC3-4FB7-4053-AF2B-6526040949A6}" name="Tabla15" displayName="Tabla15" ref="A1:AE65" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
   <tableColumns count="31">
     <tableColumn id="1" xr3:uid="{574CD7F2-4FC0-4CF6-B172-595CDFA6FD1A}" name="Archivo"/>
-    <tableColumn id="2" xr3:uid="{7D93CEDC-797D-430B-980C-5150736D914D}" name="Página" dataDxfId="72"/>
-    <tableColumn id="3" xr3:uid="{2A92AE77-B883-458C-A097-BBD089965CFC}" name="URL" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{9B3C2D24-54D1-42B2-9022-74D9FA370382}" name="1.1" dataDxfId="70"/>
-    <tableColumn id="5" xr3:uid="{CE9B421F-ECBE-4A53-B1E3-A012CA27246A}" name="1.2" dataDxfId="69"/>
-    <tableColumn id="6" xr3:uid="{98928A68-3BF1-4E69-B507-828F6AEA2EB0}" name="1.3" dataDxfId="68"/>
-    <tableColumn id="7" xr3:uid="{0621A6EB-679D-4FEB-94AF-061E2DE68193}" name="1.4" dataDxfId="67"/>
-    <tableColumn id="8" xr3:uid="{7CE93AD8-520E-4291-BD33-DC5F08D79329}" name="1.5" dataDxfId="66"/>
-    <tableColumn id="9" xr3:uid="{4B3E8103-52EF-4BFB-8115-66A832F70D35}" name="1.6" dataDxfId="65"/>
-    <tableColumn id="10" xr3:uid="{34C815F3-3BBC-43A4-BC48-2EFB500A955F}" name="1.7" dataDxfId="64"/>
-    <tableColumn id="11" xr3:uid="{8870A219-0CD5-44A3-8825-CA42FF292B60}" name="1.8" dataDxfId="63"/>
-    <tableColumn id="12" xr3:uid="{FCAD5C4F-6BD0-4D9B-88E2-5214C292B050}" name="1.9" dataDxfId="62"/>
-    <tableColumn id="13" xr3:uid="{82623482-C45D-47CC-82C9-8AA462ED8D74}" name="1.10" dataDxfId="61"/>
-    <tableColumn id="14" xr3:uid="{D7291241-A9E5-4681-B8B7-E61A6DB374D6}" name="1.11" dataDxfId="60"/>
-    <tableColumn id="15" xr3:uid="{DEA53A24-9E78-46D4-B503-A8B72BB671B2}" name="1.12" dataDxfId="59"/>
-    <tableColumn id="16" xr3:uid="{834557F5-A287-44D9-9AEC-53B7FCA0D0C3}" name="1.13" dataDxfId="58"/>
-    <tableColumn id="17" xr3:uid="{037AE33F-FB98-4E3C-9624-332417B581C1}" name="1.14" dataDxfId="57"/>
-    <tableColumn id="18" xr3:uid="{DDBA31A3-A030-4B96-BB4C-5CC2296A2EAD}" name="2.1" dataDxfId="56"/>
-    <tableColumn id="19" xr3:uid="{23CDCFC4-6F65-4A5E-8096-B0D491C54D46}" name="2.2" dataDxfId="55"/>
-    <tableColumn id="20" xr3:uid="{5BA53E0E-DA36-4D83-B0F0-80529F57B51E}" name="2.3" dataDxfId="54"/>
-    <tableColumn id="21" xr3:uid="{85AA5087-A223-4A16-9FE7-0E7859C133FC}" name="2.4" dataDxfId="53"/>
-    <tableColumn id="22" xr3:uid="{6DFEB095-F11E-4350-8B28-74B2B4A09A91}" name="2.5" dataDxfId="52"/>
-    <tableColumn id="23" xr3:uid="{5680E96B-8A38-41A3-B938-854F355584E6}" name="2.6" dataDxfId="51"/>
-    <tableColumn id="25" xr3:uid="{0E7289FE-E1BE-454A-8F3D-E1A71BC75C79}" name="Fallos Nivel A" dataDxfId="50">
+    <tableColumn id="2" xr3:uid="{7D93CEDC-797D-430B-980C-5150736D914D}" name="Página" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{2A92AE77-B883-458C-A097-BBD089965CFC}" name="URL" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{9B3C2D24-54D1-42B2-9022-74D9FA370382}" name="1.1" dataDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{CE9B421F-ECBE-4A53-B1E3-A012CA27246A}" name="1.2" dataDxfId="67"/>
+    <tableColumn id="6" xr3:uid="{98928A68-3BF1-4E69-B507-828F6AEA2EB0}" name="1.3" dataDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{0621A6EB-679D-4FEB-94AF-061E2DE68193}" name="1.4" dataDxfId="65"/>
+    <tableColumn id="8" xr3:uid="{7CE93AD8-520E-4291-BD33-DC5F08D79329}" name="1.5" dataDxfId="64"/>
+    <tableColumn id="9" xr3:uid="{4B3E8103-52EF-4BFB-8115-66A832F70D35}" name="1.6" dataDxfId="63"/>
+    <tableColumn id="10" xr3:uid="{34C815F3-3BBC-43A4-BC48-2EFB500A955F}" name="1.7" dataDxfId="62"/>
+    <tableColumn id="11" xr3:uid="{8870A219-0CD5-44A3-8825-CA42FF292B60}" name="1.8" dataDxfId="61"/>
+    <tableColumn id="12" xr3:uid="{FCAD5C4F-6BD0-4D9B-88E2-5214C292B050}" name="1.9" dataDxfId="60"/>
+    <tableColumn id="13" xr3:uid="{82623482-C45D-47CC-82C9-8AA462ED8D74}" name="1.10" dataDxfId="59"/>
+    <tableColumn id="14" xr3:uid="{D7291241-A9E5-4681-B8B7-E61A6DB374D6}" name="1.11" dataDxfId="58"/>
+    <tableColumn id="15" xr3:uid="{DEA53A24-9E78-46D4-B503-A8B72BB671B2}" name="1.12" dataDxfId="57"/>
+    <tableColumn id="16" xr3:uid="{834557F5-A287-44D9-9AEC-53B7FCA0D0C3}" name="1.13" dataDxfId="56"/>
+    <tableColumn id="17" xr3:uid="{037AE33F-FB98-4E3C-9624-332417B581C1}" name="1.14" dataDxfId="55"/>
+    <tableColumn id="18" xr3:uid="{DDBA31A3-A030-4B96-BB4C-5CC2296A2EAD}" name="2.1" dataDxfId="54"/>
+    <tableColumn id="19" xr3:uid="{23CDCFC4-6F65-4A5E-8096-B0D491C54D46}" name="2.2" dataDxfId="53"/>
+    <tableColumn id="20" xr3:uid="{5BA53E0E-DA36-4D83-B0F0-80529F57B51E}" name="2.3" dataDxfId="52"/>
+    <tableColumn id="21" xr3:uid="{85AA5087-A223-4A16-9FE7-0E7859C133FC}" name="2.4" dataDxfId="51"/>
+    <tableColumn id="22" xr3:uid="{6DFEB095-F11E-4350-8B28-74B2B4A09A91}" name="2.5" dataDxfId="50"/>
+    <tableColumn id="23" xr3:uid="{5680E96B-8A38-41A3-B938-854F355584E6}" name="2.6" dataDxfId="49"/>
+    <tableColumn id="25" xr3:uid="{0E7289FE-E1BE-454A-8F3D-E1A71BC75C79}" name="Fallos Nivel A" dataDxfId="48">
       <calculatedColumnFormula>COUNTIF(D2:Q2,"0 F")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{D6575953-3F63-4B79-AC4E-BE0FF87BF530}" name="Fallos Nivel AA" dataDxfId="49">
+    <tableColumn id="26" xr3:uid="{D6575953-3F63-4B79-AC4E-BE0FF87BF530}" name="Fallos Nivel AA" dataDxfId="47">
       <calculatedColumnFormula>COUNTIF(R2:W2,"0 F")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{6948B44C-F093-4BFB-AAB6-3BBA31716C9C}" name="Puntuación Media original" dataDxfId="48"/>
-    <tableColumn id="30" xr3:uid="{5FC01226-C926-4173-A9C1-33E66ADC1E3A}" name="Check Puntuación Media original" dataDxfId="47">
+    <tableColumn id="31" xr3:uid="{6948B44C-F093-4BFB-AAB6-3BBA31716C9C}" name="Puntuación Media original" dataDxfId="46"/>
+    <tableColumn id="30" xr3:uid="{5FC01226-C926-4173-A9C1-33E66ADC1E3A}" name="Check Puntuación Media original" dataDxfId="45">
       <calculatedColumnFormula>10*(COUNTIF(Tabla15[[#This Row],[1.1]:[2.6]],"1 P")+0.5*COUNTIF(Tabla15[[#This Row],[1.1]:[2.6]],"0.5 "))/(COUNTIF(Tabla15[[#This Row],[1.1]:[2.6]],"1 P")+COUNTIF(Tabla15[[#This Row],[1.1]:[2.6]],"0 F")+COUNTIF(Tabla15[[#This Row],[1.1]:[2.6]],"0.5 P"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{5E663771-16F6-4556-A907-AFFD974C1F1E}" name="Puntuación Media sin 1.7 y 2.1" dataDxfId="46">
+    <tableColumn id="29" xr3:uid="{5E663771-16F6-4556-A907-AFFD974C1F1E}" name="Puntuación Media sin 1.7 y 2.1" dataDxfId="44">
       <calculatedColumnFormula>10*(COUNTIF(Tabla15[[#This Row],[1.1]:[1.6]], "1 P") + 0.5*COUNTIF(Tabla15[[#This Row],[1.1]:[1.6]], "0.5 P") + COUNTIF(Tabla15[[#This Row],[1.8]:[1.14]], "1 P") + COUNTIF(Tabla15[[#This Row],[2.2]:[2.6]], "1 P") + 0.5*COUNTIF(Tabla15[[#This Row],[1.8]:[1.14]], "0.5 P") + 0.5*COUNTIF(Tabla15[[#This Row],[2.2]:[2.6]], "0.5 P")) / (COUNTIF(Tabla15[[#This Row],[1.1]:[1.6]], "1 P") + COUNTIF(Tabla15[[#This Row],[1.1]:[1.6]], "0 F") + COUNTIF(Tabla15[[#This Row],[1.8]:[1.14]], "1 P") + COUNTIF(Tabla15[[#This Row],[2.2]:[2.6]], "1 P") + COUNTIF(Tabla15[[#This Row],[1.8]:[1.14]], "0 F") + COUNTIF(Tabla15[[#This Row],[2.2]:[2.6]], "0 F"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{AA0F1A0A-940A-4000-988E-611ABAC40EFE}" name="Nivel de adecuación estimado original" dataDxfId="45"/>
-    <tableColumn id="27" xr3:uid="{1DA169DD-E42B-4C6C-8C2E-9D46D207351C}" name="Check Nivel ad. Original" dataDxfId="44">
+    <tableColumn id="24" xr3:uid="{AA0F1A0A-940A-4000-988E-611ABAC40EFE}" name="Nivel de adecuación estimado original" dataDxfId="43"/>
+    <tableColumn id="27" xr3:uid="{1DA169DD-E42B-4C6C-8C2E-9D46D207351C}" name="Check Nivel ad. Original" dataDxfId="42">
       <calculatedColumnFormula>IF(X2&gt;2,"No válido",IF(Y2&lt;3,"AA","A"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{C81FB9E2-ACCA-4AD5-B5AE-161AB0DB5826}" name="Nivel de adecuación estimado sin 1.7 y 2.1" dataDxfId="43">
+    <tableColumn id="28" xr3:uid="{C81FB9E2-ACCA-4AD5-B5AE-161AB0DB5826}" name="Nivel de adecuación estimado sin 1.7 y 2.1" dataDxfId="41">
       <calculatedColumnFormula>IF(X2&gt;3,"No válido",IF(Y2&lt;4,"AA","A"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3261,49 +3212,49 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{93CF5173-74C4-45B5-8606-58CFDE65CA69}" name="Tabla1" displayName="Tabla1" ref="A1:AE65" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{93CF5173-74C4-45B5-8606-58CFDE65CA69}" name="Tabla1" displayName="Tabla1" ref="A1:AE65" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <tableColumns count="31">
     <tableColumn id="1" xr3:uid="{8A0842DC-E53A-4D81-AA4F-EF8AC9F2FC8C}" name="Archivo"/>
-    <tableColumn id="2" xr3:uid="{1ECD9C57-5361-435C-ACDD-6507A9C287BF}" name="Página" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{95A1A851-C1DE-49FB-98AC-7111FF77361C}" name="URL" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{9D42CCE2-A6AF-4A82-9F2C-6FF2EEF920C6}" name="1.1" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{D2798725-9F05-463E-BEB0-DF4B6B6C1212}" name="1.2" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{8EF95DB4-6E59-4600-8B7F-98C946F20101}" name="1.3" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{2184CE5D-022A-4426-8E85-A7674B29FC22}" name="1.4" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{E4C2D519-24F9-49D8-9ACC-8D1AF8F16BF7}" name="1.5" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{9BD74BCA-E00B-42DF-8FC9-2BA713CD8B63}" name="1.6" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{BE1459B3-A1D7-40D0-ABB3-E5C7E9243F3E}" name="1.7" dataDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{E62CE23D-6EB5-4698-85F0-813B3DA515A7}" name="1.8" dataDxfId="31"/>
-    <tableColumn id="12" xr3:uid="{EDC662D8-EE21-4A44-B7AB-18DCEC2FFAC6}" name="1.9" dataDxfId="30"/>
-    <tableColumn id="13" xr3:uid="{0512FCC9-CAC8-4A52-A4E2-B520F278124B}" name="1.10" dataDxfId="29"/>
-    <tableColumn id="14" xr3:uid="{C188E033-8B3A-4EF1-942C-3F1C9005DCA0}" name="1.11" dataDxfId="28"/>
-    <tableColumn id="15" xr3:uid="{5B70B0AC-5B2D-4248-AEF5-7B60C6E30220}" name="1.12" dataDxfId="27"/>
-    <tableColumn id="16" xr3:uid="{B347E7AB-F044-40E3-88A0-9B2B2639CB35}" name="1.13" dataDxfId="26"/>
-    <tableColumn id="17" xr3:uid="{F852E62C-CE94-4F22-B58B-11CE75414F4F}" name="1.14" dataDxfId="25"/>
-    <tableColumn id="18" xr3:uid="{43CE51D5-DBA6-477B-9E44-E228DCECD54A}" name="2.1" dataDxfId="24"/>
-    <tableColumn id="19" xr3:uid="{21E2412B-2A01-436C-B0D5-5B8019F93571}" name="2.2" dataDxfId="23"/>
-    <tableColumn id="20" xr3:uid="{F132F78C-0DAA-445D-AFB4-597D2CFA86CD}" name="2.3" dataDxfId="22"/>
-    <tableColumn id="21" xr3:uid="{71E90722-EDC6-4B67-A479-36C81E9246B5}" name="2.4" dataDxfId="21"/>
-    <tableColumn id="22" xr3:uid="{93268F58-D0FB-46F7-A134-AEB88994F2CD}" name="2.5" dataDxfId="20"/>
-    <tableColumn id="23" xr3:uid="{086207AD-F74E-46AC-BEB0-D5F55F14B10C}" name="2.6" dataDxfId="19"/>
-    <tableColumn id="25" xr3:uid="{F6324D7A-B3BF-42FC-BB18-03313B115B92}" name="Fallos Nivel A" dataDxfId="18">
+    <tableColumn id="2" xr3:uid="{1ECD9C57-5361-435C-ACDD-6507A9C287BF}" name="Página" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{95A1A851-C1DE-49FB-98AC-7111FF77361C}" name="URL" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{9D42CCE2-A6AF-4A82-9F2C-6FF2EEF920C6}" name="1.1" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{D2798725-9F05-463E-BEB0-DF4B6B6C1212}" name="1.2" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{8EF95DB4-6E59-4600-8B7F-98C946F20101}" name="1.3" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{2184CE5D-022A-4426-8E85-A7674B29FC22}" name="1.4" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{E4C2D519-24F9-49D8-9ACC-8D1AF8F16BF7}" name="1.5" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{9BD74BCA-E00B-42DF-8FC9-2BA713CD8B63}" name="1.6" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{BE1459B3-A1D7-40D0-ABB3-E5C7E9243F3E}" name="1.7" dataDxfId="30"/>
+    <tableColumn id="11" xr3:uid="{E62CE23D-6EB5-4698-85F0-813B3DA515A7}" name="1.8" dataDxfId="29"/>
+    <tableColumn id="12" xr3:uid="{EDC662D8-EE21-4A44-B7AB-18DCEC2FFAC6}" name="1.9" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{0512FCC9-CAC8-4A52-A4E2-B520F278124B}" name="1.10" dataDxfId="27"/>
+    <tableColumn id="14" xr3:uid="{C188E033-8B3A-4EF1-942C-3F1C9005DCA0}" name="1.11" dataDxfId="26"/>
+    <tableColumn id="15" xr3:uid="{5B70B0AC-5B2D-4248-AEF5-7B60C6E30220}" name="1.12" dataDxfId="25"/>
+    <tableColumn id="16" xr3:uid="{B347E7AB-F044-40E3-88A0-9B2B2639CB35}" name="1.13" dataDxfId="24"/>
+    <tableColumn id="17" xr3:uid="{F852E62C-CE94-4F22-B58B-11CE75414F4F}" name="1.14" dataDxfId="23"/>
+    <tableColumn id="18" xr3:uid="{43CE51D5-DBA6-477B-9E44-E228DCECD54A}" name="2.1" dataDxfId="22"/>
+    <tableColumn id="19" xr3:uid="{21E2412B-2A01-436C-B0D5-5B8019F93571}" name="2.2" dataDxfId="21"/>
+    <tableColumn id="20" xr3:uid="{F132F78C-0DAA-445D-AFB4-597D2CFA86CD}" name="2.3" dataDxfId="20"/>
+    <tableColumn id="21" xr3:uid="{71E90722-EDC6-4B67-A479-36C81E9246B5}" name="2.4" dataDxfId="19"/>
+    <tableColumn id="22" xr3:uid="{93268F58-D0FB-46F7-A134-AEB88994F2CD}" name="2.5" dataDxfId="18"/>
+    <tableColumn id="23" xr3:uid="{086207AD-F74E-46AC-BEB0-D5F55F14B10C}" name="2.6" dataDxfId="17"/>
+    <tableColumn id="25" xr3:uid="{F6324D7A-B3BF-42FC-BB18-03313B115B92}" name="Fallos Nivel A" dataDxfId="16">
       <calculatedColumnFormula>COUNTIF(D2:Q2,"0 F")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{1F88FD90-076D-4C39-800E-ABC1961CBA4C}" name="Fallos Nivel AA" dataDxfId="17">
+    <tableColumn id="26" xr3:uid="{1F88FD90-076D-4C39-800E-ABC1961CBA4C}" name="Fallos Nivel AA" dataDxfId="15">
       <calculatedColumnFormula>COUNTIF(R2:W2,"0 F")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{2629B00F-4577-41C2-98EC-2935BE3F3E57}" name="Puntuación Media original" dataDxfId="16"/>
-    <tableColumn id="32" xr3:uid="{F3BA9DA9-D347-4ADA-8313-73C388D9C213}" name="Check Puntuación Media original" dataDxfId="15">
+    <tableColumn id="30" xr3:uid="{2629B00F-4577-41C2-98EC-2935BE3F3E57}" name="Puntuación Media original" dataDxfId="14"/>
+    <tableColumn id="32" xr3:uid="{F3BA9DA9-D347-4ADA-8313-73C388D9C213}" name="Check Puntuación Media original" dataDxfId="13">
       <calculatedColumnFormula>10*(COUNTIF(Tabla1[[#This Row],[1.1]:[2.6]],"1 P")+0.5*COUNTIF(Tabla1[[#This Row],[1.1]:[2.6]],"0.5 "))/(COUNTIF(Tabla1[[#This Row],[1.1]:[2.6]],"1 P")+COUNTIF(Tabla1[[#This Row],[1.1]:[2.6]],"0 F")+COUNTIF(Tabla1[[#This Row],[1.1]:[2.6]],"0.5 P"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{E8E3939D-251F-46EC-BED8-CF20E6CBD229}" name="Puntuación Media sin 1.7 y 2.1" dataDxfId="14">
+    <tableColumn id="33" xr3:uid="{E8E3939D-251F-46EC-BED8-CF20E6CBD229}" name="Puntuación Media sin 1.7 y 2.1" dataDxfId="12">
       <calculatedColumnFormula>10*(COUNTIF(Tabla1[[#This Row],[1.1]:[1.6]], "1 P") + 0.5*COUNTIF(Tabla1[[#This Row],[1.1]:[1.6]], "0.5 P") + COUNTIF(Tabla1[[#This Row],[1.8]:[1.14]], "1 P") + COUNTIF(Tabla1[[#This Row],[2.2]:[2.6]], "1 P") + 0.5*COUNTIF(Tabla1[[#This Row],[1.8]:[1.14]], "0.5 P") + 0.5*COUNTIF(Tabla1[[#This Row],[2.2]:[2.6]], "0.5 P")) / (COUNTIF(Tabla1[[#This Row],[1.1]:[1.6]], "1 P") + COUNTIF(Tabla1[[#This Row],[1.1]:[1.6]], "0 F") + COUNTIF(Tabla1[[#This Row],[1.8]:[1.14]], "1 P") + COUNTIF(Tabla1[[#This Row],[2.2]:[2.6]], "1 P") + COUNTIF(Tabla1[[#This Row],[1.8]:[1.14]], "0 F") + COUNTIF(Tabla1[[#This Row],[2.2]:[2.6]], "0 F"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{EFF02CCB-584C-439E-B34A-12692D0EC7DC}" name="Nivel de adecuación estimado original" dataDxfId="13"/>
-    <tableColumn id="27" xr3:uid="{16F0B9BB-4CAA-44DF-9DD9-748057343C2F}" name="Check Nivel ad. Original" dataDxfId="12">
+    <tableColumn id="24" xr3:uid="{EFF02CCB-584C-439E-B34A-12692D0EC7DC}" name="Nivel de adecuación estimado original" dataDxfId="11"/>
+    <tableColumn id="27" xr3:uid="{16F0B9BB-4CAA-44DF-9DD9-748057343C2F}" name="Check Nivel ad. Original" dataDxfId="10">
       <calculatedColumnFormula>IF(X2&gt;2,"No válido",IF(Y2&lt;3,"AA","A"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{5FF55077-134D-434F-8425-2700A63D8D69}" name="Nivel de adecuación estimado sin 1.7 y 2.1" dataDxfId="11">
+    <tableColumn id="28" xr3:uid="{5FF55077-134D-434F-8425-2700A63D8D69}" name="Nivel de adecuación estimado sin 1.7 y 2.1" dataDxfId="9">
       <calculatedColumnFormula>IF(X2&gt;3,"No válido",IF(Y2&lt;4,"AA","A"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3579,103 +3530,103 @@
   </sheetPr>
   <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="113" style="86" customWidth="1"/>
+    <col min="2" max="2" width="113" style="81" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="104" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="104"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="77" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="104"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="82" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="78" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="83" t="s">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="79"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="77" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="84"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="82" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="78" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="83" t="s">
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="79"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="77" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="84"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="82" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="78" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="83" t="s">
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="80"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="77" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="80" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="85"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="82" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="85" t="s">
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="80" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="80"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="77" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="80" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="80"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="77" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="85" t="s">
+    <row r="20" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="80" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="85"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="82" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="85" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="85"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="82" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="85" t="s">
-        <v>259</v>
-      </c>
-    </row>
     <row r="22" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="84"/>
+      <c r="B22" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12677,17 +12628,17 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D72:W72">
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="Si">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Si">
       <formula>NOT(ISERROR(SEARCH("Si",D72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:AB65">
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="0 F">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="0 F">
       <formula>NOT(ISERROR(SEARCH("0 F",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z67:AE69">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="0 F">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="0 F">
       <formula>NOT(ISERROR(SEARCH("0 F",Z67)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12707,7 +12658,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19907,22 +19858,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:W2 D3:Z65 AB3:AB65">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="0 F">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="0 F">
       <formula>NOT(ISERROR(SEARCH("0 F",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:W72">
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Si">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Si">
       <formula>NOT(ISERROR(SEARCH("Si",D72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:AB2 AA3:AA65">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="0 F">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="0 F">
       <formula>NOT(ISERROR(SEARCH("0 F",X2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z67:AE69">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="0 F">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="0 F">
       <formula>NOT(ISERROR(SEARCH("0 F",Z67)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19935,13 +19886,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95B7BF7-C4C7-43E6-9C54-68D3EF981592}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V14" sqref="V13:V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19956,67 +19907,67 @@
     <col min="9" max="9" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
     <col min="13" max="14" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="126" t="s">
+      <c r="D1" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126" t="s">
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="137" t="s">
-        <v>265</v>
-      </c>
-      <c r="N1" s="124" t="s">
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="117" t="s">
+        <v>264</v>
+      </c>
+      <c r="N1" s="119" t="s">
         <v>232</v>
       </c>
-      <c r="O1" s="124"/>
+      <c r="O1" s="119"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="138"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="140" t="s">
-        <v>248</v>
-      </c>
-      <c r="E2" s="141" t="s">
+      <c r="A2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="100" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" s="102" t="s">
         <v>246</v>
       </c>
-      <c r="F2" s="140" t="s">
+      <c r="G2" s="103" t="s">
+        <v>262</v>
+      </c>
+      <c r="H2" s="100" t="s">
         <v>247</v>
       </c>
-      <c r="G2" s="142" t="s">
-        <v>264</v>
-      </c>
-      <c r="H2" s="140" t="s">
-        <v>248</v>
-      </c>
-      <c r="I2" s="141" t="s">
+      <c r="I2" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="J2" s="102" t="s">
         <v>246</v>
       </c>
-      <c r="J2" s="140" t="s">
-        <v>247</v>
-      </c>
-      <c r="K2" s="142" t="s">
-        <v>264</v>
-      </c>
-      <c r="L2" s="143"/>
+      <c r="K2" s="103" t="s">
+        <v>262</v>
+      </c>
+      <c r="L2" s="118"/>
       <c r="N2" t="s">
         <v>48</v>
       </c>
@@ -20025,16 +19976,16 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="90">
+      <c r="D3" s="85">
         <f>COUNTIF(Tabla15[1.1],"0 F")/64</f>
         <v>0.34375</v>
       </c>
@@ -20042,14 +19993,12 @@
         <f>COUNTIF(Tabla15[1.1],"1 P")/64</f>
         <v>0.640625</v>
       </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="136">
+      <c r="F3" s="3"/>
+      <c r="G3" s="96">
         <f>COUNTIF(Tabla15[1.1],"- P")/64</f>
         <v>1.5625E-2</v>
       </c>
-      <c r="H3" s="90">
+      <c r="H3" s="85">
         <f>COUNTIF(Tabla1[1.1],"0 F")/64</f>
         <v>0.5</v>
       </c>
@@ -20058,8 +20007,8 @@
         <v>0.5</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="135">
+      <c r="K3" s="96"/>
+      <c r="L3" s="95">
         <f>H3-D3</f>
         <v>0.15625</v>
       </c>
@@ -20108,7 +20057,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="K4" s="9"/>
-      <c r="L4" s="135">
+      <c r="L4" s="95">
         <f t="shared" ref="L4:L16" si="0">H4-D4</f>
         <v>0.53125</v>
       </c>
@@ -20139,9 +20088,7 @@
         <f>COUNTIF(Tabla15[1.3],"1 P")/64</f>
         <v>0.78125</v>
       </c>
-      <c r="F5" s="45">
-        <v>0</v>
-      </c>
+      <c r="F5" s="45"/>
       <c r="G5" s="54"/>
       <c r="H5" s="53">
         <f>COUNTIF(Tabla1[1.3],"0 F")/64</f>
@@ -20153,7 +20100,7 @@
       </c>
       <c r="J5" s="45"/>
       <c r="K5" s="54"/>
-      <c r="L5" s="135">
+      <c r="L5" s="95">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
@@ -20184,9 +20131,7 @@
         <f>COUNTIF(Tabla15[1.4],"1 P")/64</f>
         <v>0.125</v>
       </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
+      <c r="F6" s="8"/>
       <c r="G6" s="9">
         <f>COUNTIF(Tabla15[1.4],"- P")/64</f>
         <v>0.828125</v>
@@ -20204,7 +20149,7 @@
         <f>COUNTIF(Tabla1[1.4],"- P")/64</f>
         <v>0.921875</v>
       </c>
-      <c r="L6" s="135">
+      <c r="L6" s="95">
         <f t="shared" si="0"/>
         <v>-3.125E-2</v>
       </c>
@@ -20235,9 +20180,7 @@
         <f>COUNTIF(Tabla15[1.5],"1 P")/64</f>
         <v>0.765625</v>
       </c>
-      <c r="F7" s="45">
-        <v>0</v>
-      </c>
+      <c r="F7" s="45"/>
       <c r="G7" s="54"/>
       <c r="H7" s="53">
         <f>COUNTIF(Tabla1[1.5],"0 F")/64</f>
@@ -20249,7 +20192,7 @@
       </c>
       <c r="J7" s="45"/>
       <c r="K7" s="54"/>
-      <c r="L7" s="135">
+      <c r="L7" s="95">
         <f t="shared" si="0"/>
         <v>0.484375</v>
       </c>
@@ -20280,9 +20223,7 @@
         <f>COUNTIF(Tabla15[1.6],"1 P")/64</f>
         <v>0.703125</v>
       </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
+      <c r="F8" s="8"/>
       <c r="G8" s="9"/>
       <c r="H8" s="7">
         <f>COUNTIF(Tabla1[1.6],"0 F")/64</f>
@@ -20294,7 +20235,7 @@
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="135">
+      <c r="L8" s="95">
         <f t="shared" si="0"/>
         <v>0.34375</v>
       </c>
@@ -20325,9 +20266,7 @@
         <f>COUNTIF(Tabla15[1.7],"1 P")/64</f>
         <v>0</v>
       </c>
-      <c r="F9" s="45">
-        <v>0</v>
-      </c>
+      <c r="F9" s="45"/>
       <c r="G9" s="54"/>
       <c r="H9" s="53">
         <f>COUNTIF(Tabla1[1.7],"0 F")/64</f>
@@ -20339,7 +20278,7 @@
       </c>
       <c r="J9" s="45"/>
       <c r="K9" s="54"/>
-      <c r="L9" s="135">
+      <c r="L9" s="95">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20370,9 +20309,7 @@
         <f>COUNTIF(Tabla15[1.8],"1 P")/64</f>
         <v>0.875</v>
       </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
+      <c r="F10" s="8"/>
       <c r="G10" s="9"/>
       <c r="H10" s="7">
         <f>COUNTIF(Tabla1[1.8],"0 F")/64</f>
@@ -20384,7 +20321,7 @@
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="135">
+      <c r="L10" s="95">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20415,9 +20352,7 @@
         <f>COUNTIF(Tabla15[1.9],"1 P")/64</f>
         <v>0.640625</v>
       </c>
-      <c r="F11" s="45">
-        <v>0</v>
-      </c>
+      <c r="F11" s="45"/>
       <c r="G11" s="54">
         <f>COUNTIF(Tabla15[1.9],"- P")/64</f>
         <v>0.140625</v>
@@ -20435,7 +20370,7 @@
         <f>COUNTIF(Tabla1[1.9],"- P")/64</f>
         <v>0.140625</v>
       </c>
-      <c r="L11" s="135">
+      <c r="L11" s="95">
         <f t="shared" si="0"/>
         <v>0.28125</v>
       </c>
@@ -20487,7 +20422,7 @@
         <f>COUNTIF(Tabla1[1.10],"- P")/64</f>
         <v>0.359375</v>
       </c>
-      <c r="L12" s="135">
+      <c r="L12" s="95">
         <f t="shared" si="0"/>
         <v>1.5625E-2</v>
       </c>
@@ -20518,9 +20453,7 @@
         <f>COUNTIF(Tabla15[1.11],"1 P")/64</f>
         <v>0.796875</v>
       </c>
-      <c r="F13" s="45">
-        <v>0</v>
-      </c>
+      <c r="F13" s="45"/>
       <c r="G13" s="54"/>
       <c r="H13" s="53">
         <f>COUNTIF(Tabla1[1.11],"0 F")/64</f>
@@ -20532,7 +20465,7 @@
       </c>
       <c r="J13" s="45"/>
       <c r="K13" s="54"/>
-      <c r="L13" s="135">
+      <c r="L13" s="95">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
@@ -20563,9 +20496,7 @@
         <f>COUNTIF(Tabla15[1.12],"1 P")/64</f>
         <v>0.390625</v>
       </c>
-      <c r="F14" s="8">
-        <v>0</v>
-      </c>
+      <c r="F14" s="8"/>
       <c r="G14" s="9">
         <f>COUNTIF(Tabla15[1.12],"- P")/64</f>
         <v>1.5625E-2</v>
@@ -20580,7 +20511,7 @@
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="135">
+      <c r="L14" s="95">
         <f t="shared" si="0"/>
         <v>0.28125</v>
       </c>
@@ -20611,9 +20542,7 @@
         <f>COUNTIF(Tabla15[1.13],"1 P")/64</f>
         <v>0.984375</v>
       </c>
-      <c r="F15" s="45">
-        <v>0</v>
-      </c>
+      <c r="F15" s="45"/>
       <c r="G15" s="54"/>
       <c r="H15" s="53">
         <f>COUNTIF(Tabla1[1.13],"0 F")/64</f>
@@ -20625,7 +20554,7 @@
       </c>
       <c r="J15" s="45"/>
       <c r="K15" s="54"/>
-      <c r="L15" s="135">
+      <c r="L15" s="95">
         <f t="shared" si="0"/>
         <v>-1.5625E-2</v>
       </c>
@@ -20656,9 +20585,7 @@
         <f>COUNTIF(Tabla15[1.14],"1 P")/64</f>
         <v>0.515625</v>
       </c>
-      <c r="F16" s="18">
-        <v>0</v>
-      </c>
+      <c r="F16" s="18"/>
       <c r="G16" s="19"/>
       <c r="H16" s="17">
         <f>COUNTIF(Tabla1[1.14],"0 F")/64</f>
@@ -20670,7 +20597,7 @@
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="19"/>
-      <c r="L16" s="135">
+      <c r="L16" s="95">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
@@ -20684,45 +20611,45 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="109" t="s">
-        <v>263</v>
-      </c>
-      <c r="B17" s="110"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="132">
-        <f>SUM(D3:D16)/14</f>
+      <c r="A17" s="125" t="s">
+        <v>261</v>
+      </c>
+      <c r="B17" s="126"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="94">
+        <f t="shared" ref="D17:L17" si="3">SUM(D3:D16)/14</f>
         <v>0.29910714285714285</v>
       </c>
-      <c r="E17" s="132">
-        <f>SUM(E3:E16)/14</f>
+      <c r="E17" s="94">
+        <f t="shared" si="3"/>
         <v>0.6160714285714286</v>
       </c>
-      <c r="F17" s="132">
-        <f>SUM(F3:F16)/14</f>
+      <c r="F17" s="94">
+        <f t="shared" si="3"/>
         <v>3.3482142857142855E-3</v>
       </c>
-      <c r="G17" s="132">
-        <f>SUM(G3:G16)/14</f>
+      <c r="G17" s="94">
+        <f t="shared" si="3"/>
         <v>8.1473214285714288E-2</v>
       </c>
-      <c r="H17" s="132">
-        <f>SUM(H3:H16)/14</f>
+      <c r="H17" s="94">
+        <f t="shared" si="3"/>
         <v>0.4765625</v>
       </c>
-      <c r="I17" s="132">
-        <f>SUM(I3:I16)/14</f>
+      <c r="I17" s="94">
+        <f t="shared" si="3"/>
         <v>0.41964285714285715</v>
       </c>
-      <c r="J17" s="132">
-        <f>SUM(J3:J16)/14</f>
+      <c r="J17" s="94">
+        <f t="shared" si="3"/>
         <v>2.232142857142857E-3</v>
       </c>
-      <c r="K17" s="132">
-        <f>SUM(K3:K16)/14</f>
+      <c r="K17" s="94">
+        <f t="shared" si="3"/>
         <v>0.1015625</v>
       </c>
-      <c r="L17" s="144">
-        <f>SUM(L3:L16)/14</f>
+      <c r="L17" s="97">
+        <f t="shared" si="3"/>
         <v>0.17745535714285715</v>
       </c>
       <c r="N17" s="40">
@@ -20764,7 +20691,7 @@
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="14"/>
-      <c r="L18" s="135">
+      <c r="L18" s="95">
         <f>H18-D18</f>
         <v>-3.125E-2</v>
       </c>
@@ -20807,8 +20734,8 @@
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="135">
-        <f t="shared" ref="L19:L23" si="3">H19-D19</f>
+      <c r="L19" s="95">
+        <f t="shared" ref="L19:L23" si="4">H19-D19</f>
         <v>0.171875</v>
       </c>
       <c r="N19" s="40">
@@ -20850,8 +20777,8 @@
       </c>
       <c r="J20" s="45"/>
       <c r="K20" s="54"/>
-      <c r="L20" s="135">
-        <f t="shared" si="3"/>
+      <c r="L20" s="95">
+        <f t="shared" si="4"/>
         <v>0.15625</v>
       </c>
       <c r="N20" s="40">
@@ -20893,8 +20820,8 @@
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="135">
-        <f t="shared" si="3"/>
+      <c r="L21" s="95">
+        <f t="shared" si="4"/>
         <v>0.46875</v>
       </c>
       <c r="N21" s="40">
@@ -20936,8 +20863,8 @@
       </c>
       <c r="J22" s="45"/>
       <c r="K22" s="54"/>
-      <c r="L22" s="135">
-        <f t="shared" si="3"/>
+      <c r="L22" s="95">
+        <f t="shared" si="4"/>
         <v>0.4375</v>
       </c>
       <c r="N22" s="40">
@@ -20982,8 +20909,8 @@
       </c>
       <c r="J23" s="18"/>
       <c r="K23" s="19"/>
-      <c r="L23" s="135">
-        <f t="shared" si="3"/>
+      <c r="L23" s="95">
+        <f t="shared" si="4"/>
         <v>-1.5625E-2</v>
       </c>
       <c r="N23" s="40">
@@ -20996,90 +20923,90 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="109" t="s">
-        <v>263</v>
-      </c>
-      <c r="B24" s="110"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="132">
-        <f>SUM(D18:D23)/6</f>
+      <c r="A24" s="125" t="s">
+        <v>261</v>
+      </c>
+      <c r="B24" s="126"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="94">
+        <f t="shared" ref="D24:L24" si="5">SUM(D18:D23)/6</f>
         <v>0.30989583333333331</v>
       </c>
-      <c r="E24" s="132">
-        <f>SUM(E18:E23)/6</f>
+      <c r="E24" s="94">
+        <f t="shared" si="5"/>
         <v>0.6875</v>
       </c>
-      <c r="F24" s="132">
-        <f>SUM(F18:F23)/6</f>
+      <c r="F24" s="94">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G24" s="132">
-        <f>SUM(G18:G23)/6</f>
+      <c r="G24" s="94">
+        <f t="shared" si="5"/>
         <v>2.6041666666666665E-3</v>
       </c>
-      <c r="H24" s="132">
-        <f>SUM(H18:H23)/6</f>
+      <c r="H24" s="94">
+        <f t="shared" si="5"/>
         <v>0.5078125</v>
       </c>
-      <c r="I24" s="132">
-        <f>SUM(I18:I23)/6</f>
+      <c r="I24" s="94">
+        <f t="shared" si="5"/>
         <v>0.4921875</v>
       </c>
-      <c r="J24" s="132">
-        <f>SUM(J18:J23)/6</f>
+      <c r="J24" s="94">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K24" s="132">
-        <f>SUM(K18:K23)/6</f>
+      <c r="K24" s="94">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L24" s="144">
-        <f>SUM(L18:L23)/6</f>
+      <c r="L24" s="97">
+        <f t="shared" si="5"/>
         <v>0.19791666666666666</v>
       </c>
       <c r="N24" s="40"/>
       <c r="O24" s="40"/>
     </row>
     <row r="25" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="145" t="s">
+      <c r="A25" s="128" t="s">
         <v>228</v>
       </c>
-      <c r="B25" s="146"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="148">
+      <c r="B25" s="129"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="98">
         <f>SUM(D3:D16,D18:D23)/20</f>
         <v>0.30234375000000002</v>
       </c>
-      <c r="E25" s="148">
-        <f t="shared" ref="E25:L25" si="4">SUM(E3:E16,E18:E23)/20</f>
+      <c r="E25" s="98">
+        <f t="shared" ref="E25:L25" si="6">SUM(E3:E16,E18:E23)/20</f>
         <v>0.63749999999999996</v>
       </c>
-      <c r="F25" s="148">
-        <f t="shared" si="4"/>
+      <c r="F25" s="98">
+        <f t="shared" si="6"/>
         <v>2.3437499999999999E-3</v>
       </c>
-      <c r="G25" s="148">
-        <f t="shared" si="4"/>
+      <c r="G25" s="98">
+        <f t="shared" si="6"/>
         <v>5.7812500000000003E-2</v>
       </c>
-      <c r="H25" s="148">
-        <f t="shared" si="4"/>
+      <c r="H25" s="98">
+        <f t="shared" si="6"/>
         <v>0.48593750000000002</v>
       </c>
-      <c r="I25" s="148">
-        <f t="shared" si="4"/>
+      <c r="I25" s="98">
+        <f t="shared" si="6"/>
         <v>0.44140625</v>
       </c>
-      <c r="J25" s="148">
-        <f t="shared" si="4"/>
+      <c r="J25" s="98">
+        <f t="shared" si="6"/>
         <v>1.5625000000000001E-3</v>
       </c>
-      <c r="K25" s="148">
-        <f t="shared" si="4"/>
+      <c r="K25" s="98">
+        <f t="shared" si="6"/>
         <v>7.1093749999999997E-2</v>
       </c>
-      <c r="L25" s="149">
-        <f t="shared" si="4"/>
+      <c r="L25" s="99">
+        <f t="shared" si="6"/>
         <v>0.18359375</v>
       </c>
       <c r="N25" s="40"/>
@@ -21091,49 +21018,49 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="103"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="93"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="112" t="s">
+      <c r="A29" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="113"/>
-      <c r="C29" s="116" t="s">
+      <c r="B29" s="132"/>
+      <c r="C29" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="133" t="s">
+      <c r="D29" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="134"/>
-      <c r="F29" s="134"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="130" t="s">
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="I29" s="134"/>
-      <c r="J29" s="134"/>
-      <c r="K29" s="134"/>
-      <c r="L29" s="118" t="s">
+      <c r="I29" s="122"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="122"/>
+      <c r="L29" s="109" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="114"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="117"/>
+    <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="133"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="136"/>
       <c r="D30" s="42" t="s">
         <v>223</v>
       </c>
@@ -21158,1011 +21085,1022 @@
       <c r="K30" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="L30" s="119"/>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L30" s="110"/>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="str">
-        <f t="shared" ref="A31:A44" si="5">A3</f>
+        <f t="shared" ref="A31:A44" si="7">A3</f>
         <v>A</v>
       </c>
       <c r="B31" s="47" t="str">
-        <f t="shared" ref="B31:L31" si="6">B3</f>
+        <f t="shared" ref="B31:L31" si="8">B3</f>
         <v>1.1</v>
       </c>
       <c r="C31" s="57" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>Existencia de alternativas textuales</v>
       </c>
       <c r="D31" s="13">
-        <f t="shared" ref="D31:D44" si="7">D3</f>
+        <f t="shared" ref="D31:D44" si="9">D3</f>
         <v>0.34375</v>
       </c>
       <c r="E31" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.640625</v>
       </c>
       <c r="F31" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G31" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5625E-2</v>
       </c>
       <c r="H31" s="13">
-        <f t="shared" ref="H31:H44" si="8">H3</f>
+        <f t="shared" ref="H31:H44" si="10">H3</f>
         <v>0.5</v>
       </c>
       <c r="I31" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="J31" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K31" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L31" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15625</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>A</v>
       </c>
       <c r="B32" s="46" t="str">
-        <f t="shared" ref="B32:C44" si="9">B4</f>
+        <f t="shared" ref="B32:C44" si="11">B4</f>
         <v>1.2</v>
       </c>
       <c r="C32" s="58" t="str">
+        <f t="shared" si="11"/>
+        <v>Uso de encabezados</v>
+      </c>
+      <c r="D32" s="8">
         <f t="shared" si="9"/>
-        <v>Uso de encabezados</v>
-      </c>
-      <c r="D32" s="8">
+        <v>0.34375</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" ref="E32:G44" si="12">E4</f>
+        <v>0.625</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" si="12"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="G32" s="73">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="8">
+        <f t="shared" si="10"/>
+        <v>0.875</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" ref="I32:L44" si="13">I4</f>
+        <v>9.375E-2</v>
+      </c>
+      <c r="J32" s="8">
+        <f t="shared" si="13"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="K32" s="73">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="5">
+        <f t="shared" si="13"/>
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="48" t="str">
         <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="B33" s="44" t="str">
+        <f t="shared" si="11"/>
+        <v>1.3</v>
+      </c>
+      <c r="C33" s="59" t="str">
+        <f t="shared" si="11"/>
+        <v>Uso de listas</v>
+      </c>
+      <c r="D33" s="45">
+        <f t="shared" si="9"/>
+        <v>0.21875</v>
+      </c>
+      <c r="E33" s="53">
+        <f t="shared" si="12"/>
+        <v>0.78125</v>
+      </c>
+      <c r="F33" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="54">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="45">
+        <f t="shared" si="10"/>
         <v>0.34375</v>
       </c>
-      <c r="E32" s="7">
-        <f t="shared" ref="E32:G44" si="10">E4</f>
-        <v>0.625</v>
-      </c>
-      <c r="F32" s="8">
+      <c r="I33" s="53">
+        <f t="shared" si="13"/>
+        <v>0.65625</v>
+      </c>
+      <c r="J33" s="45">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="54">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="5">
+        <f t="shared" si="13"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="B34" s="46" t="str">
+        <f t="shared" si="11"/>
+        <v>1.4</v>
+      </c>
+      <c r="C34" s="58" t="str">
+        <f t="shared" si="11"/>
+        <v>Tablas de datos</v>
+      </c>
+      <c r="D34" s="8">
+        <f t="shared" si="9"/>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="12"/>
+        <v>0.125</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="9">
+        <f t="shared" si="12"/>
+        <v>0.828125</v>
+      </c>
+      <c r="H34" s="8">
         <f t="shared" si="10"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="G32" s="76">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="13"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="J34" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="9">
+        <f t="shared" si="13"/>
+        <v>0.921875</v>
+      </c>
+      <c r="L34" s="5">
+        <f t="shared" si="13"/>
+        <v>-3.125E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="B35" s="44" t="str">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="C35" s="59" t="str">
+        <f t="shared" si="11"/>
+        <v>Agrupación estructural</v>
+      </c>
+      <c r="D35" s="45">
+        <f t="shared" si="9"/>
+        <v>0.234375</v>
+      </c>
+      <c r="E35" s="53">
+        <f t="shared" si="12"/>
+        <v>0.765625</v>
+      </c>
+      <c r="F35" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="72">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="45">
+        <f t="shared" si="10"/>
+        <v>0.71875</v>
+      </c>
+      <c r="I35" s="53">
+        <f t="shared" si="13"/>
+        <v>0.28125</v>
+      </c>
+      <c r="J35" s="45">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="72">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="5">
+        <f t="shared" si="13"/>
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="B36" s="46" t="str">
+        <f t="shared" si="11"/>
+        <v>1.6</v>
+      </c>
+      <c r="C36" s="58" t="str">
+        <f t="shared" si="11"/>
+        <v>Separación de contenido y presentación</v>
+      </c>
+      <c r="D36" s="8">
+        <f t="shared" si="9"/>
+        <v>0.296875</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" si="12"/>
+        <v>0.703125</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="73">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="8">
+        <f t="shared" si="10"/>
+        <v>0.640625</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" si="13"/>
+        <v>0.359375</v>
+      </c>
+      <c r="J36" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="73">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="5">
+        <f t="shared" si="13"/>
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="B37" s="44" t="str">
+        <f t="shared" si="11"/>
+        <v>1.7</v>
+      </c>
+      <c r="C37" s="59" t="str">
+        <f t="shared" si="11"/>
+        <v>Identificación del idioma principal</v>
+      </c>
+      <c r="D37" s="45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E37" s="53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="54">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="45">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I37" s="53">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="45">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="54">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="B38" s="46" t="str">
+        <f t="shared" si="11"/>
+        <v>1.8</v>
+      </c>
+      <c r="C38" s="58" t="str">
+        <f t="shared" si="11"/>
+        <v>Navegación con javascript accesible y control..</v>
+      </c>
+      <c r="D38" s="8">
+        <f t="shared" si="9"/>
+        <v>0.125</v>
+      </c>
+      <c r="E38" s="7">
+        <f t="shared" si="12"/>
+        <v>0.875</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="8">
+        <f t="shared" si="10"/>
+        <v>0.125</v>
+      </c>
+      <c r="I38" s="7">
+        <f t="shared" si="13"/>
+        <v>0.875</v>
+      </c>
+      <c r="J38" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="B39" s="44" t="str">
+        <f t="shared" si="11"/>
+        <v>1.9</v>
+      </c>
+      <c r="C39" s="59" t="str">
+        <f t="shared" si="11"/>
+        <v>Formularios y etiquetas</v>
+      </c>
+      <c r="D39" s="45">
+        <f t="shared" si="9"/>
+        <v>0.21875</v>
+      </c>
+      <c r="E39" s="53">
+        <f t="shared" si="12"/>
+        <v>0.640625</v>
+      </c>
+      <c r="F39" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="72">
+        <f t="shared" si="12"/>
+        <v>0.140625</v>
+      </c>
+      <c r="H39" s="45">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="I39" s="53">
+        <f t="shared" si="13"/>
+        <v>0.359375</v>
+      </c>
+      <c r="J39" s="45">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="72">
+        <f t="shared" si="13"/>
+        <v>0.140625</v>
+      </c>
+      <c r="L39" s="5">
+        <f t="shared" si="13"/>
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="B40" s="46" t="str">
+        <f t="shared" si="11"/>
+        <v>1.10</v>
+      </c>
+      <c r="C40" s="58" t="str">
+        <f t="shared" si="11"/>
+        <v>Formularios y estructura</v>
+      </c>
+      <c r="D40" s="8">
+        <f t="shared" si="9"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E40" s="7">
+        <f t="shared" si="12"/>
+        <v>0.78125</v>
+      </c>
+      <c r="F40" s="8">
+        <f t="shared" si="12"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G40" s="9">
+        <f t="shared" si="12"/>
+        <v>0.140625</v>
+      </c>
+      <c r="H40" s="8">
+        <f t="shared" si="10"/>
+        <v>7.8125E-2</v>
+      </c>
+      <c r="I40" s="7">
+        <f t="shared" si="13"/>
+        <v>0.5625</v>
+      </c>
+      <c r="J40" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="9">
+        <f t="shared" si="13"/>
+        <v>0.359375</v>
+      </c>
+      <c r="L40" s="5">
+        <f t="shared" si="13"/>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="B41" s="44" t="str">
+        <f t="shared" si="11"/>
+        <v>1.11</v>
+      </c>
+      <c r="C41" s="59" t="str">
+        <f t="shared" si="11"/>
+        <v>Título de página y de marcos</v>
+      </c>
+      <c r="D41" s="45">
+        <f t="shared" si="9"/>
+        <v>0.203125</v>
+      </c>
+      <c r="E41" s="53">
+        <f t="shared" si="12"/>
+        <v>0.796875</v>
+      </c>
+      <c r="F41" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="54">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="45">
+        <f t="shared" si="10"/>
+        <v>0.265625</v>
+      </c>
+      <c r="I41" s="53">
+        <f t="shared" si="13"/>
+        <v>0.734375</v>
+      </c>
+      <c r="J41" s="45">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="54">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="5">
+        <f t="shared" si="13"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="B42" s="46" t="str">
+        <f t="shared" si="11"/>
+        <v>1.12</v>
+      </c>
+      <c r="C42" s="58" t="str">
+        <f t="shared" si="11"/>
+        <v>Enlaces descriptivos</v>
+      </c>
+      <c r="D42" s="8">
+        <f t="shared" si="9"/>
+        <v>0.59375</v>
+      </c>
+      <c r="E42" s="7">
+        <f t="shared" si="12"/>
+        <v>0.390625</v>
+      </c>
+      <c r="F42" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="73">
+        <f t="shared" si="12"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="H42" s="8">
+        <f t="shared" si="10"/>
+        <v>0.875</v>
+      </c>
+      <c r="I42" s="7">
+        <f t="shared" si="13"/>
+        <v>0.125</v>
+      </c>
+      <c r="J42" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="73">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="5">
+        <f t="shared" si="13"/>
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v>A</v>
+      </c>
+      <c r="B43" s="44" t="str">
+        <f t="shared" si="11"/>
+        <v>1.13</v>
+      </c>
+      <c r="C43" s="59" t="str">
+        <f t="shared" si="11"/>
+        <v>Cambios de contexto</v>
+      </c>
+      <c r="D43" s="45">
+        <f t="shared" si="9"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E43" s="53">
+        <f t="shared" si="12"/>
+        <v>0.984375</v>
+      </c>
+      <c r="F43" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="54">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="45">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H32" s="8">
-        <f t="shared" si="8"/>
-        <v>0.875</v>
-      </c>
-      <c r="I32" s="7">
-        <f t="shared" ref="I32:L44" si="11">I4</f>
-        <v>9.375E-2</v>
-      </c>
-      <c r="J32" s="8">
-        <f t="shared" si="11"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="K32" s="76">
-        <f t="shared" si="11"/>
+      <c r="I43" s="53">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J43" s="45">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L32" s="5">
-        <f t="shared" si="11"/>
-        <v>0.53125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="B33" s="44" t="str">
-        <f t="shared" si="9"/>
-        <v>1.3</v>
-      </c>
-      <c r="C33" s="59" t="str">
-        <f t="shared" si="9"/>
-        <v>Uso de listas</v>
-      </c>
-      <c r="D33" s="45">
-        <f t="shared" si="7"/>
-        <v>0.21875</v>
-      </c>
-      <c r="E33" s="53">
-        <f t="shared" si="10"/>
-        <v>0.78125</v>
-      </c>
-      <c r="F33" s="45">
-        <f t="shared" si="10"/>
+      <c r="K43" s="54">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G33" s="54">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="45">
-        <f t="shared" si="8"/>
-        <v>0.34375</v>
-      </c>
-      <c r="I33" s="53">
-        <f t="shared" si="11"/>
-        <v>0.65625</v>
-      </c>
-      <c r="J33" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="54">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="5">
-        <f t="shared" si="11"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="B34" s="46" t="str">
-        <f t="shared" si="9"/>
-        <v>1.4</v>
-      </c>
-      <c r="C34" s="58" t="str">
-        <f t="shared" si="9"/>
-        <v>Tablas de datos</v>
-      </c>
-      <c r="D34" s="8">
-        <f t="shared" si="7"/>
-        <v>4.6875E-2</v>
-      </c>
-      <c r="E34" s="7">
-        <f t="shared" si="10"/>
-        <v>0.125</v>
-      </c>
-      <c r="F34" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="9">
-        <f t="shared" si="10"/>
-        <v>0.828125</v>
-      </c>
-      <c r="H34" s="8">
-        <f t="shared" si="8"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="I34" s="7">
-        <f t="shared" si="11"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="J34" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="9">
-        <f t="shared" si="11"/>
-        <v>0.921875</v>
-      </c>
-      <c r="L34" s="5">
-        <f t="shared" si="11"/>
-        <v>-3.125E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="B35" s="44" t="str">
-        <f t="shared" si="9"/>
-        <v>1.5</v>
-      </c>
-      <c r="C35" s="59" t="str">
-        <f t="shared" si="9"/>
-        <v>Agrupación estructural</v>
-      </c>
-      <c r="D35" s="45">
-        <f t="shared" si="7"/>
-        <v>0.234375</v>
-      </c>
-      <c r="E35" s="53">
-        <f t="shared" si="10"/>
-        <v>0.765625</v>
-      </c>
-      <c r="F35" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="75">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="45">
-        <f t="shared" si="8"/>
-        <v>0.71875</v>
-      </c>
-      <c r="I35" s="53">
-        <f t="shared" si="11"/>
-        <v>0.28125</v>
-      </c>
-      <c r="J35" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="5">
-        <f t="shared" si="11"/>
-        <v>0.484375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="B36" s="46" t="str">
-        <f t="shared" si="9"/>
-        <v>1.6</v>
-      </c>
-      <c r="C36" s="58" t="str">
-        <f t="shared" si="9"/>
-        <v>Separación de contenido y presentación</v>
-      </c>
-      <c r="D36" s="8">
-        <f t="shared" si="7"/>
-        <v>0.296875</v>
-      </c>
-      <c r="E36" s="7">
-        <f t="shared" si="10"/>
-        <v>0.703125</v>
-      </c>
-      <c r="F36" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="76">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="8">
-        <f t="shared" si="8"/>
-        <v>0.640625</v>
-      </c>
-      <c r="I36" s="7">
-        <f t="shared" si="11"/>
-        <v>0.359375</v>
-      </c>
-      <c r="J36" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="76">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="5">
-        <f t="shared" si="11"/>
-        <v>0.34375</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="48" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="B37" s="44" t="str">
-        <f t="shared" si="9"/>
-        <v>1.7</v>
-      </c>
-      <c r="C37" s="59" t="str">
-        <f t="shared" si="9"/>
-        <v>Identificación del idioma principal</v>
-      </c>
-      <c r="D37" s="45">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="E37" s="53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="54">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="45">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="I37" s="53">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="54">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="B38" s="46" t="str">
-        <f t="shared" si="9"/>
-        <v>1.8</v>
-      </c>
-      <c r="C38" s="58" t="str">
-        <f t="shared" si="9"/>
-        <v>Navegación con javascript accesible y control..</v>
-      </c>
-      <c r="D38" s="8">
-        <f t="shared" si="7"/>
-        <v>0.125</v>
-      </c>
-      <c r="E38" s="7">
-        <f t="shared" si="10"/>
-        <v>0.875</v>
-      </c>
-      <c r="F38" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="8">
-        <f t="shared" si="8"/>
-        <v>0.125</v>
-      </c>
-      <c r="I38" s="7">
-        <f t="shared" si="11"/>
-        <v>0.875</v>
-      </c>
-      <c r="J38" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="B39" s="44" t="str">
-        <f t="shared" si="9"/>
-        <v>1.9</v>
-      </c>
-      <c r="C39" s="59" t="str">
-        <f t="shared" si="9"/>
-        <v>Formularios y etiquetas</v>
-      </c>
-      <c r="D39" s="45">
-        <f t="shared" si="7"/>
-        <v>0.21875</v>
-      </c>
-      <c r="E39" s="53">
-        <f t="shared" si="10"/>
-        <v>0.640625</v>
-      </c>
-      <c r="F39" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="75">
-        <f t="shared" si="10"/>
-        <v>0.140625</v>
-      </c>
-      <c r="H39" s="45">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="I39" s="53">
-        <f t="shared" si="11"/>
-        <v>0.359375</v>
-      </c>
-      <c r="J39" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="75">
-        <f t="shared" si="11"/>
-        <v>0.140625</v>
-      </c>
-      <c r="L39" s="5">
-        <f t="shared" si="11"/>
-        <v>0.28125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="B40" s="46" t="str">
-        <f t="shared" si="9"/>
-        <v>1.10</v>
-      </c>
-      <c r="C40" s="58" t="str">
-        <f t="shared" si="9"/>
-        <v>Formularios y estructura</v>
-      </c>
-      <c r="D40" s="8">
-        <f t="shared" si="7"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="E40" s="7">
-        <f t="shared" si="10"/>
-        <v>0.78125</v>
-      </c>
-      <c r="F40" s="8">
-        <f t="shared" si="10"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="G40" s="9">
-        <f t="shared" si="10"/>
-        <v>0.140625</v>
-      </c>
-      <c r="H40" s="8">
-        <f t="shared" si="8"/>
-        <v>7.8125E-2</v>
-      </c>
-      <c r="I40" s="7">
-        <f t="shared" si="11"/>
-        <v>0.5625</v>
-      </c>
-      <c r="J40" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="9">
-        <f t="shared" si="11"/>
-        <v>0.359375</v>
-      </c>
-      <c r="L40" s="5">
-        <f t="shared" si="11"/>
-        <v>1.5625E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="48" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="B41" s="44" t="str">
-        <f t="shared" si="9"/>
-        <v>1.11</v>
-      </c>
-      <c r="C41" s="59" t="str">
-        <f t="shared" si="9"/>
-        <v>Título de página y de marcos</v>
-      </c>
-      <c r="D41" s="45">
-        <f t="shared" si="7"/>
-        <v>0.203125</v>
-      </c>
-      <c r="E41" s="53">
-        <f t="shared" si="10"/>
-        <v>0.796875</v>
-      </c>
-      <c r="F41" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="54">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="45">
-        <f t="shared" si="8"/>
-        <v>0.265625</v>
-      </c>
-      <c r="I41" s="53">
-        <f t="shared" si="11"/>
-        <v>0.734375</v>
-      </c>
-      <c r="J41" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="54">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="5">
-        <f t="shared" si="11"/>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="B42" s="46" t="str">
-        <f t="shared" si="9"/>
-        <v>1.12</v>
-      </c>
-      <c r="C42" s="58" t="str">
-        <f t="shared" si="9"/>
-        <v>Enlaces descriptivos</v>
-      </c>
-      <c r="D42" s="8">
-        <f t="shared" si="7"/>
-        <v>0.59375</v>
-      </c>
-      <c r="E42" s="7">
-        <f t="shared" si="10"/>
-        <v>0.390625</v>
-      </c>
-      <c r="F42" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="76">
-        <f t="shared" si="10"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="H42" s="8">
-        <f t="shared" si="8"/>
-        <v>0.875</v>
-      </c>
-      <c r="I42" s="7">
-        <f t="shared" si="11"/>
-        <v>0.125</v>
-      </c>
-      <c r="J42" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="76">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="5">
-        <f t="shared" si="11"/>
-        <v>0.28125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="48" t="str">
-        <f t="shared" si="5"/>
-        <v>A</v>
-      </c>
-      <c r="B43" s="44" t="str">
-        <f t="shared" si="9"/>
-        <v>1.13</v>
-      </c>
-      <c r="C43" s="59" t="str">
-        <f t="shared" si="9"/>
-        <v>Cambios de contexto</v>
-      </c>
-      <c r="D43" s="45">
-        <f t="shared" si="7"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="E43" s="53">
-        <f t="shared" si="10"/>
-        <v>0.984375</v>
-      </c>
-      <c r="F43" s="45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="54">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="45">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="53">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J43" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="54">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="L43" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1.5625E-2</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>A</v>
       </c>
       <c r="B44" s="49" t="str">
+        <f t="shared" si="11"/>
+        <v>1.14</v>
+      </c>
+      <c r="C44" s="60" t="str">
+        <f t="shared" si="11"/>
+        <v>Compatibilidad</v>
+      </c>
+      <c r="D44" s="18">
         <f t="shared" si="9"/>
-        <v>1.14</v>
-      </c>
-      <c r="C44" s="60" t="str">
-        <f t="shared" si="9"/>
-        <v>Compatibilidad</v>
-      </c>
-      <c r="D44" s="18">
-        <f t="shared" si="7"/>
         <v>0.484375</v>
       </c>
       <c r="E44" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.515625</v>
       </c>
       <c r="F44" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="79">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="18">
-        <f t="shared" si="8"/>
-        <v>0.734375</v>
-      </c>
-      <c r="I44" s="17">
-        <f t="shared" si="11"/>
-        <v>0.265625</v>
-      </c>
-      <c r="J44" s="18">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="79">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="61">
-        <f t="shared" si="11"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="str">
-        <f t="shared" ref="A45:L47" si="12">A18</f>
-        <v>AA</v>
-      </c>
-      <c r="B45" s="47" t="str">
-        <f t="shared" si="12"/>
-        <v>2.1</v>
-      </c>
-      <c r="C45" s="57" t="str">
-        <f t="shared" si="12"/>
-        <v>Identificación de los cambios de idioma</v>
-      </c>
-      <c r="D45" s="3">
-        <f t="shared" ref="D45:D50" si="13">D18</f>
-        <v>1</v>
-      </c>
-      <c r="E45" s="56">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G44" s="74">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
+      <c r="H44" s="18">
+        <f t="shared" si="10"/>
+        <v>0.734375</v>
+      </c>
+      <c r="I44" s="17">
+        <f t="shared" si="13"/>
+        <v>0.265625</v>
+      </c>
+      <c r="J44" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="74">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="61">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="str">
+        <f t="shared" ref="A45:L47" si="14">A18</f>
+        <v>AA</v>
+      </c>
+      <c r="B45" s="47" t="str">
+        <f t="shared" si="14"/>
+        <v>2.1</v>
+      </c>
+      <c r="C45" s="57" t="str">
+        <f t="shared" si="14"/>
+        <v>Identificación de los cambios de idioma</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" ref="D45:D50" si="15">D18</f>
+        <v>1</v>
+      </c>
+      <c r="E45" s="56">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="G45" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H45" s="13">
-        <f t="shared" ref="H45:H50" si="14">H18</f>
+        <f t="shared" ref="H45:H50" si="16">H18</f>
         <v>0.96875</v>
       </c>
       <c r="I45" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.125E-2</v>
       </c>
       <c r="J45" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K45" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L45" s="62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-3.125E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>AA</v>
       </c>
       <c r="B46" s="46" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.2</v>
       </c>
       <c r="C46" s="58" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Legibilidad y contraste</v>
       </c>
       <c r="D46" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.21875</v>
       </c>
       <c r="E46" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.78125</v>
       </c>
       <c r="F46" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G46" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H46" s="8">
+        <f t="shared" si="16"/>
+        <v>0.390625</v>
+      </c>
+      <c r="I46" s="7">
         <f t="shared" si="14"/>
-        <v>0.390625</v>
-      </c>
-      <c r="I46" s="7">
-        <f t="shared" si="12"/>
         <v>0.609375</v>
       </c>
       <c r="J46" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K46" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L46" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.171875</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>AA</v>
       </c>
       <c r="B47" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.3</v>
       </c>
       <c r="C47" s="59" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Maquetación adaptable</v>
       </c>
       <c r="D47" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7.8125E-2</v>
       </c>
       <c r="E47" s="51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.921875</v>
       </c>
       <c r="F47" s="45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G47" s="55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H47" s="45">
+        <f t="shared" si="16"/>
+        <v>0.234375</v>
+      </c>
+      <c r="I47" s="53">
         <f t="shared" si="14"/>
-        <v>0.234375</v>
-      </c>
-      <c r="I47" s="53">
-        <f t="shared" si="12"/>
         <v>0.765625</v>
       </c>
       <c r="J47" s="45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K47" s="54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L47" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.15625</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="str">
-        <f t="shared" ref="A48:L50" si="15">A21</f>
+        <f t="shared" ref="A48:L50" si="17">A21</f>
         <v>AA</v>
       </c>
       <c r="B48" s="46" t="str">
+        <f t="shared" si="17"/>
+        <v>2.4</v>
+      </c>
+      <c r="C48" s="58" t="str">
+        <f t="shared" si="17"/>
+        <v>Múltiples vías de navegación</v>
+      </c>
+      <c r="D48" s="8">
         <f t="shared" si="15"/>
-        <v>2.4</v>
-      </c>
-      <c r="C48" s="58" t="str">
-        <f t="shared" si="15"/>
-        <v>Múltiples vías de navegación</v>
-      </c>
-      <c r="D48" s="8">
-        <f t="shared" si="13"/>
         <v>0.171875</v>
       </c>
       <c r="E48" s="50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.828125</v>
       </c>
       <c r="F48" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="G48" s="80">
-        <f t="shared" si="15"/>
+      <c r="G48" s="75">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H48" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.640625</v>
       </c>
       <c r="I48" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.359375</v>
       </c>
       <c r="J48" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K48" s="76">
-        <f t="shared" si="15"/>
+      <c r="K48" s="73">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L48" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.46875</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="str">
+        <f t="shared" si="17"/>
+        <v>AA</v>
+      </c>
+      <c r="B49" s="44" t="str">
+        <f t="shared" si="17"/>
+        <v>2.5</v>
+      </c>
+      <c r="C49" s="59" t="str">
+        <f t="shared" si="17"/>
+        <v>Independencia del dispositivo</v>
+      </c>
+      <c r="D49" s="45">
         <f t="shared" si="15"/>
+        <v>0.25</v>
+      </c>
+      <c r="E49" s="51">
+        <f t="shared" si="17"/>
+        <v>0.75</v>
+      </c>
+      <c r="F49" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="76">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="45">
+        <f t="shared" si="16"/>
+        <v>0.6875</v>
+      </c>
+      <c r="I49" s="53">
+        <f t="shared" si="17"/>
+        <v>0.3125</v>
+      </c>
+      <c r="J49" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="72">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="5">
+        <f t="shared" si="17"/>
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="16" t="str">
+        <f t="shared" si="17"/>
         <v>AA</v>
       </c>
-      <c r="B49" s="44" t="str">
+      <c r="B50" s="49" t="str">
+        <f t="shared" si="17"/>
+        <v>2.6</v>
+      </c>
+      <c r="C50" s="60" t="str">
+        <f t="shared" si="17"/>
+        <v>Navegación consistente</v>
+      </c>
+      <c r="D50" s="18">
         <f t="shared" si="15"/>
-        <v>2.5</v>
-      </c>
-      <c r="C49" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>Independencia del dispositivo</v>
-      </c>
-      <c r="D49" s="45">
-        <f t="shared" si="13"/>
-        <v>0.25</v>
-      </c>
-      <c r="E49" s="51">
-        <f t="shared" si="15"/>
-        <v>0.75</v>
-      </c>
-      <c r="F49" s="45">
-        <f t="shared" si="15"/>
+        <v>0.140625</v>
+      </c>
+      <c r="E50" s="52">
+        <f t="shared" si="17"/>
+        <v>0.84375</v>
+      </c>
+      <c r="F50" s="18">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="G49" s="81">
-        <f t="shared" si="15"/>
+      <c r="G50" s="20">
+        <f t="shared" si="17"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="H50" s="18">
+        <f t="shared" si="16"/>
+        <v>0.125</v>
+      </c>
+      <c r="I50" s="17">
+        <f t="shared" si="17"/>
+        <v>0.875</v>
+      </c>
+      <c r="J50" s="18">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H49" s="45">
-        <f t="shared" si="14"/>
-        <v>0.6875</v>
-      </c>
-      <c r="I49" s="53">
-        <f t="shared" si="15"/>
-        <v>0.3125</v>
-      </c>
-      <c r="J49" s="45">
-        <f t="shared" si="15"/>
+      <c r="K50" s="19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K49" s="75">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L49" s="5">
-        <f t="shared" si="15"/>
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>AA</v>
-      </c>
-      <c r="B50" s="49" t="str">
-        <f t="shared" si="15"/>
-        <v>2.6</v>
-      </c>
-      <c r="C50" s="60" t="str">
-        <f t="shared" si="15"/>
-        <v>Navegación consistente</v>
-      </c>
-      <c r="D50" s="18">
-        <f t="shared" si="13"/>
-        <v>0.140625</v>
-      </c>
-      <c r="E50" s="52">
-        <f t="shared" si="15"/>
-        <v>0.84375</v>
-      </c>
-      <c r="F50" s="18">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="20">
-        <f t="shared" si="15"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="H50" s="18">
-        <f t="shared" si="14"/>
-        <v>0.125</v>
-      </c>
-      <c r="I50" s="17">
-        <f t="shared" si="15"/>
-        <v>0.875</v>
-      </c>
-      <c r="J50" s="18">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="19">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="L50" s="61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1.5625E-2</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A30:O50" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0" showButton="0"/>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="25%"/>
+        <filter val="28%"/>
+        <filter val="34%"/>
+        <filter val="44%"/>
+        <filter val="47%"/>
+        <filter val="48%"/>
+        <filter val="53%"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <mergeCells count="14">
     <mergeCell ref="L29:L30"/>
@@ -22180,11 +22118,6 @@
     <mergeCell ref="A29:B30"/>
     <mergeCell ref="C29:C30"/>
   </mergeCells>
-  <conditionalFormatting sqref="A17 A24:A25 A31:L50 A3:L16 A18:L23">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>$L3&gt;=0.3</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L3:L16 L18:L23">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -22218,2118 +22151,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
-    <tabColor theme="9"/>
-  </sheetPr>
-  <dimension ref="A1:O47"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
-    <col min="13" max="14" width="10.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="122" t="s">
-        <v>231</v>
-      </c>
-      <c r="N1" s="124" t="s">
-        <v>232</v>
-      </c>
-      <c r="O1" s="124"/>
-    </row>
-    <row r="2" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="121"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="E2" s="93" t="s">
-        <v>247</v>
-      </c>
-      <c r="F2" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="G2" s="95" t="s">
-        <v>245</v>
-      </c>
-      <c r="H2" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="I2" s="93" t="s">
-        <v>247</v>
-      </c>
-      <c r="J2" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="K2" s="95" t="s">
-        <v>245</v>
-      </c>
-      <c r="L2" s="123"/>
-      <c r="N2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="88" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="89" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="90">
-        <f>COUNTIF(Tabla15[1.1],"1 P")/(COUNTIF(Tabla15[1.1],"1 P")+COUNTIF(Tabla15[1.1],"0.5 P")+COUNTIF(Tabla15[1.1],"0 F"))</f>
-        <v>0.65079365079365081</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3">
-        <f>COUNTIF(Tabla15[1.1],"0 F")/(COUNTIF(Tabla15[1.1],"1 P")+COUNTIF(Tabla15[1.1],"0.5 P")+COUNTIF(Tabla15[1.1],"0 F"))</f>
-        <v>0.34920634920634919</v>
-      </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="90">
-        <f>COUNTIF(Tabla1[1.1],"1 P")/(COUNTIF(Tabla1[1.1],"1 P")+COUNTIF(Tabla1[1.1],"0.5 P")+COUNTIF(Tabla1[1.1],"0 F"))</f>
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3">
-        <f>COUNTIF(Tabla1[1.1],"0 F")/(COUNTIF(Tabla1[1.1],"1 P")+COUNTIF(Tabla1[1.1],"0.5 P")+COUNTIF(Tabla1[1.1],"0 F"))</f>
-        <v>0.5</v>
-      </c>
-      <c r="K3" s="91"/>
-      <c r="L3" s="92">
-        <f>(D3+E3)/SUM(D3:F3)-(H3+I3)/SUM(H3:J3)</f>
-        <v>0.15079365079365081</v>
-      </c>
-      <c r="N3" s="40">
-        <f>D3+E3+F3</f>
-        <v>1</v>
-      </c>
-      <c r="O3" s="40">
-        <f>H3+I3+J3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="7">
-        <f>COUNTIF(Tabla15[1.2],"1 P")/(COUNTIF(Tabla15[1.2],"1 P")+COUNTIF(Tabla15[1.2],"0.5 P")+COUNTIF(Tabla15[1.2],"0 F"))</f>
-        <v>0.625</v>
-      </c>
-      <c r="E4" s="8">
-        <f>COUNTIF(Tabla15[1.2],"0.5 P")/(COUNTIF(Tabla15[1.2],"1 P")+COUNTIF(Tabla15[1.2],"0.5 P")+COUNTIF(Tabla15[1.2],"0 F"))</f>
-        <v>3.125E-2</v>
-      </c>
-      <c r="F4" s="8">
-        <f>COUNTIF(Tabla15[1.2],"0 F")/(COUNTIF(Tabla15[1.2],"1 P")+COUNTIF(Tabla15[1.2],"0.5 P")+COUNTIF(Tabla15[1.2],"0 F"))</f>
-        <v>0.34375</v>
-      </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="7">
-        <f>COUNTIF(Tabla1[1.2],"1 P")/(COUNTIF(Tabla1[1.2],"1 P")+COUNTIF(Tabla1[1.2],"0.5 P")+COUNTIF(Tabla1[1.2],"0 F"))</f>
-        <v>9.375E-2</v>
-      </c>
-      <c r="I4" s="8">
-        <f>COUNTIF(Tabla1[1.2],"0.5 P")/(COUNTIF(Tabla1[1.2],"1 P")+COUNTIF(Tabla1[1.2],"0.5 P")+COUNTIF(Tabla1[1.2],"0 F"))</f>
-        <v>3.125E-2</v>
-      </c>
-      <c r="J4" s="8">
-        <f>COUNTIF(Tabla1[1.2],"0 F")/(COUNTIF(Tabla1[1.2],"1 P")+COUNTIF(Tabla1[1.2],"0.5 P")+COUNTIF(Tabla1[1.2],"0 F"))</f>
-        <v>0.875</v>
-      </c>
-      <c r="K4" s="72"/>
-      <c r="L4" s="5">
-        <f t="shared" ref="L4:L22" si="0">(D4+E4)/SUM(D4:F4)-(H4+I4)/SUM(H4:J4)</f>
-        <v>0.53125</v>
-      </c>
-      <c r="N4" s="40">
-        <f t="shared" ref="N4:N22" si="1">D4+E4+F4</f>
-        <v>1</v>
-      </c>
-      <c r="O4" s="40">
-        <f t="shared" ref="O4:O22" si="2">H4+I4+J4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="53">
-        <f>COUNTIF(Tabla15[1.3],"1 P")/(COUNTIF(Tabla15[1.3],"1 P")+COUNTIF(Tabla15[1.3],"0.5 P")+COUNTIF(Tabla15[1.3],"0 F"))</f>
-        <v>0.78125</v>
-      </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45">
-        <f>COUNTIF(Tabla15[1.3],"0 F")/(COUNTIF(Tabla15[1.3],"1 P")+COUNTIF(Tabla15[1.3],"0.5 P")+COUNTIF(Tabla15[1.3],"0 F"))</f>
-        <v>0.21875</v>
-      </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="53">
-        <f>COUNTIF(Tabla1[1.3],"1 P")/(COUNTIF(Tabla1[1.3],"1 P")+COUNTIF(Tabla1[1.3],"0.5 P")+COUNTIF(Tabla1[1.3],"0 F"))</f>
-        <v>0.65625</v>
-      </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45">
-        <f>COUNTIF(Tabla1[1.3],"0 F")/(COUNTIF(Tabla1[1.3],"1 P")+COUNTIF(Tabla1[1.3],"0.5 P")+COUNTIF(Tabla1[1.3],"0 F"))</f>
-        <v>0.34375</v>
-      </c>
-      <c r="K5" s="73"/>
-      <c r="L5" s="5">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="N5" s="40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O5" s="40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="7">
-        <f>COUNTIF(Tabla15[1.4],"1 P")/(COUNTIF(Tabla15[1.4],"1 P")+COUNTIF(Tabla15[1.4],"0.5 P")+COUNTIF(Tabla15[1.4],"0 F"))</f>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8">
-        <f>COUNTIF(Tabla15[1.4],"0 F")/(COUNTIF(Tabla15[1.4],"1 P")+COUNTIF(Tabla15[1.4],"0.5 P")+COUNTIF(Tabla15[1.4],"0 F"))</f>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="G6" s="74">
-        <f>COUNTIF(Tabla15[1.4],"- P")</f>
-        <v>53</v>
-      </c>
-      <c r="H6" s="7">
-        <f>COUNTIF(Tabla1[1.4],"1 P")/(COUNTIF(Tabla1[1.4],"1 P")+COUNTIF(Tabla1[1.4],"0.5 P")+COUNTIF(Tabla1[1.4],"0 F"))</f>
-        <v>0.8</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8">
-        <f>COUNTIF(Tabla1[1.4],"0 F")/(COUNTIF(Tabla1[1.4],"1 P")+COUNTIF(Tabla1[1.4],"0.5 P")+COUNTIF(Tabla1[1.4],"0 F"))</f>
-        <v>0.2</v>
-      </c>
-      <c r="K6" s="74">
-        <f>COUNTIF(Tabla1[1.4],"- P")</f>
-        <v>59</v>
-      </c>
-      <c r="L6" s="5">
-        <f t="shared" si="0"/>
-        <v>-7.2727272727272751E-2</v>
-      </c>
-      <c r="N6" s="40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O6" s="40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="53">
-        <f>COUNTIF(Tabla15[1.5],"1 P")/(COUNTIF(Tabla15[1.5],"1 P")+COUNTIF(Tabla15[1.5],"0.5 P")+COUNTIF(Tabla15[1.5],"0 F"))</f>
-        <v>0.765625</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45">
-        <f>COUNTIF(Tabla15[1.5],"0 F")/(COUNTIF(Tabla15[1.5],"1 P")+COUNTIF(Tabla15[1.5],"0.5 P")+COUNTIF(Tabla15[1.5],"0 F"))</f>
-        <v>0.234375</v>
-      </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="53">
-        <f>COUNTIF(Tabla1[1.5],"1 P")/(COUNTIF(Tabla1[1.5],"1 P")+COUNTIF(Tabla1[1.5],"0.5 P")+COUNTIF(Tabla1[1.5],"0 F"))</f>
-        <v>0.28125</v>
-      </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45">
-        <f>COUNTIF(Tabla1[1.5],"0 F")/(COUNTIF(Tabla1[1.5],"1 P")+COUNTIF(Tabla1[1.5],"0.5 P")+COUNTIF(Tabla1[1.5],"0 F"))</f>
-        <v>0.71875</v>
-      </c>
-      <c r="K7" s="73"/>
-      <c r="L7" s="5">
-        <f t="shared" si="0"/>
-        <v>0.484375</v>
-      </c>
-      <c r="N7" s="40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O7" s="40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="7">
-        <f>COUNTIF(Tabla15[1.6],"1 P")/(COUNTIF(Tabla15[1.6],"1 P")+COUNTIF(Tabla15[1.6],"0.5 P")+COUNTIF(Tabla15[1.6],"0 F"))</f>
-        <v>0.703125</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8">
-        <f>COUNTIF(Tabla15[1.6],"0 F")/(COUNTIF(Tabla15[1.6],"1 P")+COUNTIF(Tabla15[1.6],"0.5 P")+COUNTIF(Tabla15[1.6],"0 F"))</f>
-        <v>0.296875</v>
-      </c>
-      <c r="G8" s="72"/>
-      <c r="H8" s="7">
-        <f>COUNTIF(Tabla1[1.6],"1 P")/(COUNTIF(Tabla1[1.6],"1 P")+COUNTIF(Tabla1[1.6],"0.5 P")+COUNTIF(Tabla1[1.6],"0 F"))</f>
-        <v>0.359375</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8">
-        <f>COUNTIF(Tabla1[1.6],"0 F")/(COUNTIF(Tabla1[1.6],"1 P")+COUNTIF(Tabla1[1.6],"0.5 P")+COUNTIF(Tabla1[1.6],"0 F"))</f>
-        <v>0.640625</v>
-      </c>
-      <c r="K8" s="72"/>
-      <c r="L8" s="5">
-        <f t="shared" si="0"/>
-        <v>0.34375</v>
-      </c>
-      <c r="N8" s="40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O8" s="40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="53">
-        <f>COUNTIF(Tabla15[1.7],"1 P")/(COUNTIF(Tabla15[1.7],"1 P")+COUNTIF(Tabla15[1.7],"0.5 P")+COUNTIF(Tabla15[1.7],"0 F"))</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45">
-        <f>COUNTIF(Tabla15[1.7],"0 F")/(COUNTIF(Tabla15[1.7],"1 P")+COUNTIF(Tabla15[1.7],"0.5 P")+COUNTIF(Tabla15[1.7],"0 F"))</f>
-        <v>1</v>
-      </c>
-      <c r="G9" s="73"/>
-      <c r="H9" s="53">
-        <f>COUNTIF(Tabla1[1.7],"1 P")/(COUNTIF(Tabla1[1.7],"1 P")+COUNTIF(Tabla1[1.7],"0.5 P")+COUNTIF(Tabla1[1.7],"0 F"))</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45">
-        <f>COUNTIF(Tabla1[1.7],"0 F")/(COUNTIF(Tabla1[1.7],"1 P")+COUNTIF(Tabla1[1.7],"0.5 P")+COUNTIF(Tabla1[1.7],"0 F"))</f>
-        <v>1</v>
-      </c>
-      <c r="K9" s="73"/>
-      <c r="L9" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O9" s="40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="7">
-        <f>COUNTIF(Tabla15[1.8],"1 P")/(COUNTIF(Tabla15[1.8],"1 P")+COUNTIF(Tabla15[1.8],"0.5 P")+COUNTIF(Tabla15[1.8],"0 F"))</f>
-        <v>0.875</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8">
-        <f>COUNTIF(Tabla15[1.8],"0 F")/(COUNTIF(Tabla15[1.8],"1 P")+COUNTIF(Tabla15[1.8],"0.5 P")+COUNTIF(Tabla15[1.8],"0 F"))</f>
-        <v>0.125</v>
-      </c>
-      <c r="G10" s="72"/>
-      <c r="H10" s="7">
-        <f>COUNTIF(Tabla1[1.8],"1 P")/(COUNTIF(Tabla1[1.8],"1 P")+COUNTIF(Tabla1[1.8],"0.5 P")+COUNTIF(Tabla1[1.8],"0 F"))</f>
-        <v>0.875</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8">
-        <f>COUNTIF(Tabla1[1.8],"0 F")/(COUNTIF(Tabla1[1.8],"1 P")+COUNTIF(Tabla1[1.8],"0.5 P")+COUNTIF(Tabla1[1.8],"0 F"))</f>
-        <v>0.125</v>
-      </c>
-      <c r="K10" s="72"/>
-      <c r="L10" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O10" s="40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="53">
-        <f>COUNTIF(Tabla15[1.9],"1 P")/(COUNTIF(Tabla15[1.9],"1 P")+COUNTIF(Tabla15[1.9],"0.5 P")+COUNTIF(Tabla15[1.9],"0 F"))</f>
-        <v>0.74545454545454548</v>
-      </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45">
-        <f>COUNTIF(Tabla15[1.9],"0 F")/(COUNTIF(Tabla15[1.9],"1 P")+COUNTIF(Tabla15[1.9],"0.5 P")+COUNTIF(Tabla15[1.9],"0 F"))</f>
-        <v>0.25454545454545452</v>
-      </c>
-      <c r="G11" s="75">
-        <f>COUNTIF(Tabla15[1.9],"- P")</f>
-        <v>9</v>
-      </c>
-      <c r="H11" s="53">
-        <f>COUNTIF(Tabla1[1.9],"1 P")/(COUNTIF(Tabla1[1.9],"1 P")+COUNTIF(Tabla1[1.9],"0.5 P")+COUNTIF(Tabla1[1.9],"0 F"))</f>
-        <v>0.41818181818181815</v>
-      </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45">
-        <f>COUNTIF(Tabla1[1.9],"0 F")/(COUNTIF(Tabla1[1.9],"1 P")+COUNTIF(Tabla1[1.9],"0.5 P")+COUNTIF(Tabla1[1.9],"0 F"))</f>
-        <v>0.58181818181818179</v>
-      </c>
-      <c r="K11" s="75">
-        <f>COUNTIF(Tabla1[1.9],"- P")</f>
-        <v>9</v>
-      </c>
-      <c r="L11" s="5">
-        <f t="shared" si="0"/>
-        <v>0.32727272727272733</v>
-      </c>
-      <c r="N11" s="40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O11" s="40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="7">
-        <f>COUNTIF(Tabla15[1.10],"1 P")/(COUNTIF(Tabla15[1.10],"1 P")+COUNTIF(Tabla15[1.10],"0.5 P")+COUNTIF(Tabla15[1.10],"0 F"))</f>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="E12" s="8">
-        <f>COUNTIF(Tabla15[1.10],"0.5 P")/(COUNTIF(Tabla15[1.10],"1 P")+COUNTIF(Tabla15[1.10],"0.5 P")+COUNTIF(Tabla15[1.10],"0 F"))</f>
-        <v>1.8181818181818181E-2</v>
-      </c>
-      <c r="F12" s="8">
-        <f>COUNTIF(Tabla15[1.10],"0 F")/(COUNTIF(Tabla15[1.10],"1 P")+COUNTIF(Tabla15[1.10],"0.5 P")+COUNTIF(Tabla15[1.10],"0 F"))</f>
-        <v>7.2727272727272724E-2</v>
-      </c>
-      <c r="G12" s="76">
-        <f>COUNTIF(Tabla15[1.10],"- P")</f>
-        <v>9</v>
-      </c>
-      <c r="H12" s="7">
-        <f>COUNTIF(Tabla1[1.10],"1 P")/(COUNTIF(Tabla1[1.10],"1 P")+COUNTIF(Tabla1[1.10],"0.5 P")+COUNTIF(Tabla1[1.10],"0 F"))</f>
-        <v>0.87804878048780488</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8">
-        <f>COUNTIF(Tabla1[1.10],"0 F")/(COUNTIF(Tabla1[1.10],"1 P")+COUNTIF(Tabla1[1.10],"0.5 P")+COUNTIF(Tabla1[1.10],"0 F"))</f>
-        <v>0.12195121951219512</v>
-      </c>
-      <c r="K12" s="76">
-        <f>COUNTIF(Tabla1[1.10],"- P")</f>
-        <v>23</v>
-      </c>
-      <c r="L12" s="5">
-        <f t="shared" si="0"/>
-        <v>4.9223946784922368E-2</v>
-      </c>
-      <c r="N12" s="40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O12" s="40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="53">
-        <f>COUNTIF(Tabla15[1.11],"1 P")/(COUNTIF(Tabla15[1.11],"1 P")+COUNTIF(Tabla15[1.11],"0.5 P")+COUNTIF(Tabla15[1.11],"0 F"))</f>
-        <v>0.796875</v>
-      </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45">
-        <f>COUNTIF(Tabla15[1.11],"0 F")/(COUNTIF(Tabla15[1.11],"1 P")+COUNTIF(Tabla15[1.11],"0.5 P")+COUNTIF(Tabla15[1.11],"0 F"))</f>
-        <v>0.203125</v>
-      </c>
-      <c r="G13" s="73"/>
-      <c r="H13" s="53">
-        <f>COUNTIF(Tabla1[1.11],"1 P")/(COUNTIF(Tabla1[1.11],"1 P")+COUNTIF(Tabla1[1.11],"0.5 P")+COUNTIF(Tabla1[1.11],"0 F"))</f>
-        <v>0.734375</v>
-      </c>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45">
-        <f>COUNTIF(Tabla1[1.11],"0 F")/(COUNTIF(Tabla1[1.11],"1 P")+COUNTIF(Tabla1[1.11],"0.5 P")+COUNTIF(Tabla1[1.11],"0 F"))</f>
-        <v>0.265625</v>
-      </c>
-      <c r="K13" s="73"/>
-      <c r="L13" s="5">
-        <f t="shared" si="0"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="N13" s="40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O13" s="40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="7">
-        <f>COUNTIF(Tabla15[1.12],"1 P")/(COUNTIF(Tabla15[1.12],"1 P")+COUNTIF(Tabla15[1.12],"0.5 P")+COUNTIF(Tabla15[1.12],"0 F"))</f>
-        <v>0.3968253968253968</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8">
-        <f>COUNTIF(Tabla15[1.12],"0 F")/(COUNTIF(Tabla15[1.12],"1 P")+COUNTIF(Tabla15[1.12],"0.5 P")+COUNTIF(Tabla15[1.12],"0 F"))</f>
-        <v>0.60317460317460314</v>
-      </c>
-      <c r="G14" s="72"/>
-      <c r="H14" s="7">
-        <f>COUNTIF(Tabla1[1.12],"1 P")/(COUNTIF(Tabla1[1.12],"1 P")+COUNTIF(Tabla1[1.12],"0.5 P")+COUNTIF(Tabla1[1.12],"0 F"))</f>
-        <v>0.125</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8">
-        <f>COUNTIF(Tabla1[1.12],"0 F")/(COUNTIF(Tabla1[1.12],"1 P")+COUNTIF(Tabla1[1.12],"0.5 P")+COUNTIF(Tabla1[1.12],"0 F"))</f>
-        <v>0.875</v>
-      </c>
-      <c r="K14" s="72"/>
-      <c r="L14" s="5">
-        <f t="shared" si="0"/>
-        <v>0.2718253968253968</v>
-      </c>
-      <c r="N14" s="40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O14" s="40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="53">
-        <f>COUNTIF(Tabla15[1.13],"1 P")/(COUNTIF(Tabla15[1.13],"1 P")+COUNTIF(Tabla15[1.13],"0.5 P")+COUNTIF(Tabla15[1.13],"0 F"))</f>
-        <v>0.984375</v>
-      </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45">
-        <f>COUNTIF(Tabla15[1.13],"0 F")/(COUNTIF(Tabla15[1.13],"1 P")+COUNTIF(Tabla15[1.13],"0.5 P")+COUNTIF(Tabla15[1.13],"0 F"))</f>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="G15" s="73"/>
-      <c r="H15" s="53">
-        <f>COUNTIF(Tabla1[1.13],"1 P")/(COUNTIF(Tabla1[1.13],"1 P")+COUNTIF(Tabla1[1.13],"0.5 P")+COUNTIF(Tabla1[1.13],"0 F"))</f>
-        <v>1</v>
-      </c>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45">
-        <f>COUNTIF(Tabla1[1.13],"0 F")/(COUNTIF(Tabla1[1.13],"1 P")+COUNTIF(Tabla1[1.13],"0.5 P")+COUNTIF(Tabla1[1.13],"0 F"))</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="73"/>
-      <c r="L15" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.5625E-2</v>
-      </c>
-      <c r="N15" s="40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="17">
-        <f>COUNTIF(Tabla15[1.14],"1 P")/(COUNTIF(Tabla15[1.14],"1 P")+COUNTIF(Tabla15[1.14],"0.5 P")+COUNTIF(Tabla15[1.14],"0 F"))</f>
-        <v>0.515625</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18">
-        <f>COUNTIF(Tabla15[1.14],"0 F")/(COUNTIF(Tabla15[1.14],"1 P")+COUNTIF(Tabla15[1.14],"0.5 P")+COUNTIF(Tabla15[1.14],"0 F"))</f>
-        <v>0.484375</v>
-      </c>
-      <c r="G16" s="77"/>
-      <c r="H16" s="17">
-        <f>COUNTIF(Tabla1[1.14],"1 P")/(COUNTIF(Tabla1[1.14],"1 P")+COUNTIF(Tabla1[1.14],"0.5 P")+COUNTIF(Tabla1[1.14],"0 F"))</f>
-        <v>0.265625</v>
-      </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18">
-        <f>COUNTIF(Tabla1[1.14],"0 F")/(COUNTIF(Tabla1[1.14],"1 P")+COUNTIF(Tabla1[1.14],"0.5 P")+COUNTIF(Tabla1[1.14],"0 F"))</f>
-        <v>0.734375</v>
-      </c>
-      <c r="K16" s="77"/>
-      <c r="L16" s="61">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="N16" s="40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="12">
-        <f>COUNTIF(Tabla15[2.1],"1 P")/(COUNTIF(Tabla15[2.1],"1 P")+COUNTIF(Tabla15[2.1],"0.5 P")+COUNTIF(Tabla15[2.1],"0 F"))</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13">
-        <f>COUNTIF(Tabla15[2.1],"0 F")/(COUNTIF(Tabla15[2.1],"1 P")+COUNTIF(Tabla15[2.1],"0.5 P")+COUNTIF(Tabla15[2.1],"0 F"))</f>
-        <v>1</v>
-      </c>
-      <c r="G17" s="78"/>
-      <c r="H17" s="12">
-        <f>COUNTIF(Tabla1[2.1],"1 P")/(COUNTIF(Tabla1[2.1],"1 P")+COUNTIF(Tabla1[2.1],"0.5 P")+COUNTIF(Tabla1[2.1],"0 F"))</f>
-        <v>3.125E-2</v>
-      </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13">
-        <f>COUNTIF(Tabla1[2.1],"0 F")/(COUNTIF(Tabla1[2.1],"1 P")+COUNTIF(Tabla1[2.1],"0.5 P")+COUNTIF(Tabla1[2.1],"0 F"))</f>
-        <v>0.96875</v>
-      </c>
-      <c r="K17" s="78"/>
-      <c r="L17" s="62">
-        <f t="shared" si="0"/>
-        <v>-3.125E-2</v>
-      </c>
-      <c r="N17" s="40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="7">
-        <f>COUNTIF(Tabla15[2.2],"1 P")/(COUNTIF(Tabla15[2.2],"1 P")+COUNTIF(Tabla15[2.2],"0.5 P")+COUNTIF(Tabla15[2.2],"0 F"))</f>
-        <v>0.78125</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8">
-        <f>COUNTIF(Tabla15[2.2],"0 F")/(COUNTIF(Tabla15[2.2],"1 P")+COUNTIF(Tabla15[2.2],"0.5 P")+COUNTIF(Tabla15[2.2],"0 F"))</f>
-        <v>0.21875</v>
-      </c>
-      <c r="G18" s="72"/>
-      <c r="H18" s="7">
-        <f>COUNTIF(Tabla1[2.2],"1 P")/(COUNTIF(Tabla1[2.2],"1 P")+COUNTIF(Tabla1[2.2],"0.5 P")+COUNTIF(Tabla1[2.2],"0 F"))</f>
-        <v>0.609375</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8">
-        <f>COUNTIF(Tabla1[2.2],"0 F")/(COUNTIF(Tabla1[2.2],"1 P")+COUNTIF(Tabla1[2.2],"0.5 P")+COUNTIF(Tabla1[2.2],"0 F"))</f>
-        <v>0.390625</v>
-      </c>
-      <c r="K18" s="72"/>
-      <c r="L18" s="15">
-        <f t="shared" si="0"/>
-        <v>0.171875</v>
-      </c>
-      <c r="N18" s="40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O18" s="40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="53">
-        <f>COUNTIF(Tabla15[2.3],"1 P")/(COUNTIF(Tabla15[2.3],"1 P")+COUNTIF(Tabla15[2.3],"0.5 P")+COUNTIF(Tabla15[2.3],"0 F"))</f>
-        <v>0.921875</v>
-      </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45">
-        <f>COUNTIF(Tabla15[2.3],"0 F")/(COUNTIF(Tabla15[2.3],"1 P")+COUNTIF(Tabla15[2.3],"0.5 P")+COUNTIF(Tabla15[2.3],"0 F"))</f>
-        <v>7.8125E-2</v>
-      </c>
-      <c r="G19" s="73"/>
-      <c r="H19" s="53">
-        <f>COUNTIF(Tabla1[2.3],"1 P")/(COUNTIF(Tabla1[2.3],"1 P")+COUNTIF(Tabla1[2.3],"0.5 P")+COUNTIF(Tabla1[2.3],"0 F"))</f>
-        <v>0.765625</v>
-      </c>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45">
-        <f>COUNTIF(Tabla1[2.3],"0 F")/(COUNTIF(Tabla1[2.3],"1 P")+COUNTIF(Tabla1[2.3],"0.5 P")+COUNTIF(Tabla1[2.3],"0 F"))</f>
-        <v>0.234375</v>
-      </c>
-      <c r="K19" s="73"/>
-      <c r="L19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.15625</v>
-      </c>
-      <c r="N19" s="40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="7">
-        <f>COUNTIF(Tabla15[2.4],"1 P")/(COUNTIF(Tabla15[2.4],"1 P")+COUNTIF(Tabla15[2.4],"0.5 P")+COUNTIF(Tabla15[2.4],"0 F"))</f>
-        <v>0.828125</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8">
-        <f>COUNTIF(Tabla15[2.4],"0 F")/(COUNTIF(Tabla15[2.4],"1 P")+COUNTIF(Tabla15[2.4],"0.5 P")+COUNTIF(Tabla15[2.4],"0 F"))</f>
-        <v>0.171875</v>
-      </c>
-      <c r="G20" s="72"/>
-      <c r="H20" s="7">
-        <f>COUNTIF(Tabla1[2.4],"1 P")/(COUNTIF(Tabla1[2.4],"1 P")+COUNTIF(Tabla1[2.4],"0.5 P")+COUNTIF(Tabla1[2.4],"0 F"))</f>
-        <v>0.359375</v>
-      </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8">
-        <f>COUNTIF(Tabla1[2.4],"0 F")/(COUNTIF(Tabla1[2.4],"1 P")+COUNTIF(Tabla1[2.4],"0.5 P")+COUNTIF(Tabla1[2.4],"0 F"))</f>
-        <v>0.640625</v>
-      </c>
-      <c r="K20" s="72"/>
-      <c r="L20" s="5">
-        <f t="shared" si="0"/>
-        <v>0.46875</v>
-      </c>
-      <c r="N20" s="40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="53">
-        <f>COUNTIF(Tabla15[2.5],"1 P")/(COUNTIF(Tabla15[2.5],"1 P")+COUNTIF(Tabla15[2.5],"0.5 P")+COUNTIF(Tabla15[2.5],"0 F"))</f>
-        <v>0.75</v>
-      </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45">
-        <f>COUNTIF(Tabla15[2.5],"0 F")/(COUNTIF(Tabla15[2.5],"1 P")+COUNTIF(Tabla15[2.5],"0.5 P")+COUNTIF(Tabla15[2.5],"0 F"))</f>
-        <v>0.25</v>
-      </c>
-      <c r="G21" s="73"/>
-      <c r="H21" s="53">
-        <f>COUNTIF(Tabla1[2.5],"1 P")/(COUNTIF(Tabla1[2.5],"1 P")+COUNTIF(Tabla1[2.5],"0.5 P")+COUNTIF(Tabla1[2.5],"0 F"))</f>
-        <v>0.3125</v>
-      </c>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45">
-        <f>COUNTIF(Tabla1[2.5],"0 F")/(COUNTIF(Tabla1[2.5],"1 P")+COUNTIF(Tabla1[2.5],"0.5 P")+COUNTIF(Tabla1[2.5],"0 F"))</f>
-        <v>0.6875</v>
-      </c>
-      <c r="K21" s="73"/>
-      <c r="L21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.4375</v>
-      </c>
-      <c r="N21" s="40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O21" s="40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="17">
-        <f>COUNTIF(Tabla15[2.6],"1 P")/(COUNTIF(Tabla15[2.6],"1 P")+COUNTIF(Tabla15[2.6],"0.5 P")+COUNTIF(Tabla15[2.6],"0 F"))</f>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18">
-        <f>COUNTIF(Tabla15[2.6],"0 F")/(COUNTIF(Tabla15[2.6],"1 P")+COUNTIF(Tabla15[2.6],"0.5 P")+COUNTIF(Tabla15[2.6],"0 F"))</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="G22" s="77"/>
-      <c r="H22" s="17">
-        <f>COUNTIF(Tabla1[2.6],"1 P")/(COUNTIF(Tabla1[2.6],"1 P")+COUNTIF(Tabla1[2.6],"0.5 P")+COUNTIF(Tabla1[2.6],"0 F"))</f>
-        <v>0.875</v>
-      </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18">
-        <f>COUNTIF(Tabla1[2.6],"0 F")/(COUNTIF(Tabla1[2.6],"1 P")+COUNTIF(Tabla1[2.6],"0.5 P")+COUNTIF(Tabla1[2.6],"0 F"))</f>
-        <v>0.125</v>
-      </c>
-      <c r="K22" s="77"/>
-      <c r="L22" s="61">
-        <f t="shared" si="0"/>
-        <v>-1.7857142857142905E-2</v>
-      </c>
-      <c r="N22" s="40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="125" t="s">
-        <v>233</v>
-      </c>
-      <c r="B25" s="126"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="126"/>
-      <c r="K25" s="126"/>
-      <c r="L25" s="127"/>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="112" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="113"/>
-      <c r="C26" s="116" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="128" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="131" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="129"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="130"/>
-      <c r="L26" s="118" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="114"/>
-      <c r="B27" s="115"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>222</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="G27" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="I27" s="42" t="s">
-        <v>222</v>
-      </c>
-      <c r="J27" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="K27" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="119"/>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="str">
-        <f>A3</f>
-        <v>A</v>
-      </c>
-      <c r="B28" s="47" t="str">
-        <f t="shared" ref="B28:L28" si="3">B3</f>
-        <v>1.1</v>
-      </c>
-      <c r="C28" s="57" t="str">
-        <f t="shared" si="3"/>
-        <v>Existencia de alternativas textuales</v>
-      </c>
-      <c r="D28" s="12">
-        <f t="shared" si="3"/>
-        <v>0.65079365079365081</v>
-      </c>
-      <c r="E28" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="13">
-        <f t="shared" si="3"/>
-        <v>0.34920634920634919</v>
-      </c>
-      <c r="G28" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="12">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="I28" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="13">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="K28" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="15">
-        <f t="shared" si="3"/>
-        <v>0.15079365079365081</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="str">
-        <f t="shared" ref="A29:L29" si="4">A4</f>
-        <v>A</v>
-      </c>
-      <c r="B29" s="46" t="str">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
-      </c>
-      <c r="C29" s="58" t="str">
-        <f t="shared" si="4"/>
-        <v>Uso de encabezados</v>
-      </c>
-      <c r="D29" s="7">
-        <f t="shared" si="4"/>
-        <v>0.625</v>
-      </c>
-      <c r="E29" s="8">
-        <f t="shared" si="4"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="F29" s="8">
-        <f t="shared" si="4"/>
-        <v>0.34375</v>
-      </c>
-      <c r="G29" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="7">
-        <f t="shared" si="4"/>
-        <v>9.375E-2</v>
-      </c>
-      <c r="I29" s="8">
-        <f t="shared" si="4"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="J29" s="8">
-        <f t="shared" si="4"/>
-        <v>0.875</v>
-      </c>
-      <c r="K29" s="76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="5">
-        <f t="shared" si="4"/>
-        <v>0.53125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="str">
-        <f t="shared" ref="A30:L30" si="5">A5</f>
-        <v>A</v>
-      </c>
-      <c r="B30" s="44" t="str">
-        <f t="shared" si="5"/>
-        <v>1.3</v>
-      </c>
-      <c r="C30" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>Uso de listas</v>
-      </c>
-      <c r="D30" s="53">
-        <f t="shared" si="5"/>
-        <v>0.78125</v>
-      </c>
-      <c r="E30" s="45">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="45">
-        <f t="shared" si="5"/>
-        <v>0.21875</v>
-      </c>
-      <c r="G30" s="54">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="53">
-        <f t="shared" si="5"/>
-        <v>0.65625</v>
-      </c>
-      <c r="I30" s="45">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="45">
-        <f t="shared" si="5"/>
-        <v>0.34375</v>
-      </c>
-      <c r="K30" s="54">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="5">
-        <f t="shared" si="5"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="str">
-        <f t="shared" ref="A31:L31" si="6">A6</f>
-        <v>A</v>
-      </c>
-      <c r="B31" s="46" t="str">
-        <f t="shared" si="6"/>
-        <v>1.4</v>
-      </c>
-      <c r="C31" s="58" t="str">
-        <f t="shared" si="6"/>
-        <v>Tablas de datos</v>
-      </c>
-      <c r="D31" s="7">
-        <f t="shared" si="6"/>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="E31" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="8">
-        <f t="shared" si="6"/>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="G31" s="9">
-        <f t="shared" si="6"/>
-        <v>53</v>
-      </c>
-      <c r="H31" s="7">
-        <f t="shared" si="6"/>
-        <v>0.8</v>
-      </c>
-      <c r="I31" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="8">
-        <f t="shared" si="6"/>
-        <v>0.2</v>
-      </c>
-      <c r="K31" s="9">
-        <f t="shared" si="6"/>
-        <v>59</v>
-      </c>
-      <c r="L31" s="5">
-        <f t="shared" si="6"/>
-        <v>-7.2727272727272751E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="str">
-        <f t="shared" ref="A32:L32" si="7">A7</f>
-        <v>A</v>
-      </c>
-      <c r="B32" s="44" t="str">
-        <f t="shared" si="7"/>
-        <v>1.5</v>
-      </c>
-      <c r="C32" s="59" t="str">
-        <f t="shared" si="7"/>
-        <v>Agrupación estructural</v>
-      </c>
-      <c r="D32" s="53">
-        <f t="shared" si="7"/>
-        <v>0.765625</v>
-      </c>
-      <c r="E32" s="45">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="45">
-        <f t="shared" si="7"/>
-        <v>0.234375</v>
-      </c>
-      <c r="G32" s="75">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="53">
-        <f t="shared" si="7"/>
-        <v>0.28125</v>
-      </c>
-      <c r="I32" s="45">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="45">
-        <f t="shared" si="7"/>
-        <v>0.71875</v>
-      </c>
-      <c r="K32" s="75">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="5">
-        <f t="shared" si="7"/>
-        <v>0.484375</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="str">
-        <f t="shared" ref="A33:L33" si="8">A8</f>
-        <v>A</v>
-      </c>
-      <c r="B33" s="46" t="str">
-        <f t="shared" si="8"/>
-        <v>1.6</v>
-      </c>
-      <c r="C33" s="58" t="str">
-        <f t="shared" si="8"/>
-        <v>Separación de contenido y presentación</v>
-      </c>
-      <c r="D33" s="7">
-        <f t="shared" si="8"/>
-        <v>0.703125</v>
-      </c>
-      <c r="E33" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="8">
-        <f t="shared" si="8"/>
-        <v>0.296875</v>
-      </c>
-      <c r="G33" s="76">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="7">
-        <f t="shared" si="8"/>
-        <v>0.359375</v>
-      </c>
-      <c r="I33" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="8">
-        <f t="shared" si="8"/>
-        <v>0.640625</v>
-      </c>
-      <c r="K33" s="76">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34375</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="48" t="str">
-        <f t="shared" ref="A34:L34" si="9">A9</f>
-        <v>A</v>
-      </c>
-      <c r="B34" s="44" t="str">
-        <f t="shared" si="9"/>
-        <v>1.7</v>
-      </c>
-      <c r="C34" s="59" t="str">
-        <f t="shared" si="9"/>
-        <v>Identificación del idioma principal</v>
-      </c>
-      <c r="D34" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="G34" s="54">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="45">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="K34" s="54">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="str">
-        <f t="shared" ref="A35:L35" si="10">A10</f>
-        <v>A</v>
-      </c>
-      <c r="B35" s="46" t="str">
-        <f t="shared" si="10"/>
-        <v>1.8</v>
-      </c>
-      <c r="C35" s="58" t="str">
-        <f t="shared" si="10"/>
-        <v>Navegación con javascript accesible y control..</v>
-      </c>
-      <c r="D35" s="7">
-        <f t="shared" si="10"/>
-        <v>0.875</v>
-      </c>
-      <c r="E35" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="8">
-        <f t="shared" si="10"/>
-        <v>0.125</v>
-      </c>
-      <c r="G35" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="7">
-        <f t="shared" si="10"/>
-        <v>0.875</v>
-      </c>
-      <c r="I35" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="8">
-        <f t="shared" si="10"/>
-        <v>0.125</v>
-      </c>
-      <c r="K35" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="48" t="str">
-        <f t="shared" ref="A36:L36" si="11">A11</f>
-        <v>A</v>
-      </c>
-      <c r="B36" s="44" t="str">
-        <f t="shared" si="11"/>
-        <v>1.9</v>
-      </c>
-      <c r="C36" s="59" t="str">
-        <f t="shared" si="11"/>
-        <v>Formularios y etiquetas</v>
-      </c>
-      <c r="D36" s="53">
-        <f t="shared" si="11"/>
-        <v>0.74545454545454548</v>
-      </c>
-      <c r="E36" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="45">
-        <f t="shared" si="11"/>
-        <v>0.25454545454545452</v>
-      </c>
-      <c r="G36" s="75">
-        <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="H36" s="53">
-        <f t="shared" si="11"/>
-        <v>0.41818181818181815</v>
-      </c>
-      <c r="I36" s="45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="45">
-        <f t="shared" si="11"/>
-        <v>0.58181818181818179</v>
-      </c>
-      <c r="K36" s="75">
-        <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="L36" s="5">
-        <f t="shared" si="11"/>
-        <v>0.32727272727272733</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="str">
-        <f t="shared" ref="A37:L37" si="12">A12</f>
-        <v>A</v>
-      </c>
-      <c r="B37" s="46" t="str">
-        <f t="shared" si="12"/>
-        <v>1.10</v>
-      </c>
-      <c r="C37" s="58" t="str">
-        <f t="shared" si="12"/>
-        <v>Formularios y estructura</v>
-      </c>
-      <c r="D37" s="7">
-        <f t="shared" si="12"/>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="E37" s="8">
-        <f t="shared" si="12"/>
-        <v>1.8181818181818181E-2</v>
-      </c>
-      <c r="F37" s="8">
-        <f t="shared" si="12"/>
-        <v>7.2727272727272724E-2</v>
-      </c>
-      <c r="G37" s="9">
-        <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="H37" s="7">
-        <f t="shared" si="12"/>
-        <v>0.87804878048780488</v>
-      </c>
-      <c r="I37" s="8">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="8">
-        <f t="shared" si="12"/>
-        <v>0.12195121951219512</v>
-      </c>
-      <c r="K37" s="9">
-        <f t="shared" si="12"/>
-        <v>23</v>
-      </c>
-      <c r="L37" s="5">
-        <f t="shared" si="12"/>
-        <v>4.9223946784922368E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="48" t="str">
-        <f t="shared" ref="A38:L38" si="13">A13</f>
-        <v>A</v>
-      </c>
-      <c r="B38" s="44" t="str">
-        <f t="shared" si="13"/>
-        <v>1.11</v>
-      </c>
-      <c r="C38" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>Título de página y de marcos</v>
-      </c>
-      <c r="D38" s="53">
-        <f t="shared" si="13"/>
-        <v>0.796875</v>
-      </c>
-      <c r="E38" s="45">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="45">
-        <f t="shared" si="13"/>
-        <v>0.203125</v>
-      </c>
-      <c r="G38" s="54">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="53">
-        <f t="shared" si="13"/>
-        <v>0.734375</v>
-      </c>
-      <c r="I38" s="45">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="45">
-        <f t="shared" si="13"/>
-        <v>0.265625</v>
-      </c>
-      <c r="K38" s="54">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="5">
-        <f t="shared" si="13"/>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="str">
-        <f t="shared" ref="A39:L39" si="14">A14</f>
-        <v>A</v>
-      </c>
-      <c r="B39" s="46" t="str">
-        <f t="shared" si="14"/>
-        <v>1.12</v>
-      </c>
-      <c r="C39" s="58" t="str">
-        <f t="shared" si="14"/>
-        <v>Enlaces descriptivos</v>
-      </c>
-      <c r="D39" s="7">
-        <f t="shared" si="14"/>
-        <v>0.3968253968253968</v>
-      </c>
-      <c r="E39" s="8">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="8">
-        <f t="shared" si="14"/>
-        <v>0.60317460317460314</v>
-      </c>
-      <c r="G39" s="76">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="7">
-        <f t="shared" si="14"/>
-        <v>0.125</v>
-      </c>
-      <c r="I39" s="8">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="8">
-        <f t="shared" si="14"/>
-        <v>0.875</v>
-      </c>
-      <c r="K39" s="76">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="5">
-        <f t="shared" si="14"/>
-        <v>0.2718253968253968</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="str">
-        <f t="shared" ref="A40:L40" si="15">A15</f>
-        <v>A</v>
-      </c>
-      <c r="B40" s="44" t="str">
-        <f t="shared" si="15"/>
-        <v>1.13</v>
-      </c>
-      <c r="C40" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>Cambios de contexto</v>
-      </c>
-      <c r="D40" s="53">
-        <f t="shared" si="15"/>
-        <v>0.984375</v>
-      </c>
-      <c r="E40" s="45">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="45">
-        <f t="shared" si="15"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="G40" s="54">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="53">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="I40" s="45">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="45">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="54">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="5">
-        <f t="shared" si="15"/>
-        <v>-1.5625E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="str">
-        <f t="shared" ref="A41:L41" si="16">A16</f>
-        <v>A</v>
-      </c>
-      <c r="B41" s="49" t="str">
-        <f t="shared" si="16"/>
-        <v>1.14</v>
-      </c>
-      <c r="C41" s="60" t="str">
-        <f t="shared" si="16"/>
-        <v>Compatibilidad</v>
-      </c>
-      <c r="D41" s="17">
-        <f t="shared" si="16"/>
-        <v>0.515625</v>
-      </c>
-      <c r="E41" s="18">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="18">
-        <f t="shared" si="16"/>
-        <v>0.484375</v>
-      </c>
-      <c r="G41" s="79">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="17">
-        <f t="shared" si="16"/>
-        <v>0.265625</v>
-      </c>
-      <c r="I41" s="18">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="18">
-        <f t="shared" si="16"/>
-        <v>0.734375</v>
-      </c>
-      <c r="K41" s="79">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="61">
-        <f t="shared" si="16"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="str">
-        <f t="shared" ref="A42:L42" si="17">A17</f>
-        <v>AA</v>
-      </c>
-      <c r="B42" s="47" t="str">
-        <f t="shared" si="17"/>
-        <v>2.1</v>
-      </c>
-      <c r="C42" s="57" t="str">
-        <f t="shared" si="17"/>
-        <v>Identificación de los cambios de idioma</v>
-      </c>
-      <c r="D42" s="56">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="G42" s="4">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="12">
-        <f t="shared" si="17"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="I42" s="13">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="13">
-        <f t="shared" si="17"/>
-        <v>0.96875</v>
-      </c>
-      <c r="K42" s="14">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="62">
-        <f t="shared" si="17"/>
-        <v>-3.125E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="str">
-        <f t="shared" ref="A43:L43" si="18">A18</f>
-        <v>AA</v>
-      </c>
-      <c r="B43" s="46" t="str">
-        <f t="shared" si="18"/>
-        <v>2.2</v>
-      </c>
-      <c r="C43" s="58" t="str">
-        <f t="shared" si="18"/>
-        <v>Legibilidad y contraste</v>
-      </c>
-      <c r="D43" s="50">
-        <f t="shared" si="18"/>
-        <v>0.78125</v>
-      </c>
-      <c r="E43" s="8">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="8">
-        <f t="shared" si="18"/>
-        <v>0.21875</v>
-      </c>
-      <c r="G43" s="10">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="7">
-        <f t="shared" si="18"/>
-        <v>0.609375</v>
-      </c>
-      <c r="I43" s="8">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="8">
-        <f t="shared" si="18"/>
-        <v>0.390625</v>
-      </c>
-      <c r="K43" s="9">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="15">
-        <f t="shared" si="18"/>
-        <v>0.171875</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="48" t="str">
-        <f t="shared" ref="A44:L44" si="19">A19</f>
-        <v>AA</v>
-      </c>
-      <c r="B44" s="44" t="str">
-        <f t="shared" si="19"/>
-        <v>2.3</v>
-      </c>
-      <c r="C44" s="59" t="str">
-        <f t="shared" si="19"/>
-        <v>Maquetación adaptable</v>
-      </c>
-      <c r="D44" s="51">
-        <f t="shared" si="19"/>
-        <v>0.921875</v>
-      </c>
-      <c r="E44" s="45">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="45">
-        <f t="shared" si="19"/>
-        <v>7.8125E-2</v>
-      </c>
-      <c r="G44" s="55">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="53">
-        <f t="shared" si="19"/>
-        <v>0.765625</v>
-      </c>
-      <c r="I44" s="45">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="45">
-        <f t="shared" si="19"/>
-        <v>0.234375</v>
-      </c>
-      <c r="K44" s="54">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="5">
-        <f t="shared" si="19"/>
-        <v>0.15625</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="str">
-        <f t="shared" ref="A45:L45" si="20">A20</f>
-        <v>AA</v>
-      </c>
-      <c r="B45" s="46" t="str">
-        <f t="shared" si="20"/>
-        <v>2.4</v>
-      </c>
-      <c r="C45" s="58" t="str">
-        <f t="shared" si="20"/>
-        <v>Múltiples vías de navegación</v>
-      </c>
-      <c r="D45" s="50">
-        <f t="shared" si="20"/>
-        <v>0.828125</v>
-      </c>
-      <c r="E45" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="8">
-        <f t="shared" si="20"/>
-        <v>0.171875</v>
-      </c>
-      <c r="G45" s="80">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="7">
-        <f t="shared" si="20"/>
-        <v>0.359375</v>
-      </c>
-      <c r="I45" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="8">
-        <f t="shared" si="20"/>
-        <v>0.640625</v>
-      </c>
-      <c r="K45" s="76">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="5">
-        <f t="shared" si="20"/>
-        <v>0.46875</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="48" t="str">
-        <f t="shared" ref="A46:L46" si="21">A21</f>
-        <v>AA</v>
-      </c>
-      <c r="B46" s="44" t="str">
-        <f t="shared" si="21"/>
-        <v>2.5</v>
-      </c>
-      <c r="C46" s="59" t="str">
-        <f t="shared" si="21"/>
-        <v>Independencia del dispositivo</v>
-      </c>
-      <c r="D46" s="51">
-        <f t="shared" si="21"/>
-        <v>0.75</v>
-      </c>
-      <c r="E46" s="45">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="45">
-        <f t="shared" si="21"/>
-        <v>0.25</v>
-      </c>
-      <c r="G46" s="81">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="53">
-        <f t="shared" si="21"/>
-        <v>0.3125</v>
-      </c>
-      <c r="I46" s="45">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="45">
-        <f t="shared" si="21"/>
-        <v>0.6875</v>
-      </c>
-      <c r="K46" s="75">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="5">
-        <f t="shared" si="21"/>
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="str">
-        <f t="shared" ref="A47:L47" si="22">A22</f>
-        <v>AA</v>
-      </c>
-      <c r="B47" s="49" t="str">
-        <f t="shared" si="22"/>
-        <v>2.6</v>
-      </c>
-      <c r="C47" s="60" t="str">
-        <f t="shared" si="22"/>
-        <v>Navegación consistente</v>
-      </c>
-      <c r="D47" s="52">
-        <f t="shared" si="22"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="E47" s="18">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="18">
-        <f t="shared" si="22"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="G47" s="20">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="17">
-        <f t="shared" si="22"/>
-        <v>0.875</v>
-      </c>
-      <c r="I47" s="18">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="18">
-        <f t="shared" si="22"/>
-        <v>0.125</v>
-      </c>
-      <c r="K47" s="19">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="61">
-        <f t="shared" si="22"/>
-        <v>-1.7857142857142905E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A27:O47" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0" showButton="0"/>
-    <filterColumn colId="11">
-      <customFilters>
-        <customFilter operator="greaterThanOrEqual" val="0.3"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
-  <mergeCells count="12">
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="C1:C2"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A3:L22 A28:L47">
-    <cfRule type="expression" dxfId="2" priority="10">
-      <formula>$L3&gt;=0.3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L22">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="num" val="-1"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L28:L47">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="num" val="-1"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C75636-E7C5-45A6-ABC4-088EF47FE420}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -24348,27 +22169,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120" t="s">
+      <c r="C1" s="137"/>
+      <c r="D1" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="120"/>
+      <c r="E1" s="137"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="86" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="86" t="s">
         <v>227</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="86" t="s">
         <v>226</v>
       </c>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="86" t="s">
         <v>227</v>
       </c>
     </row>
@@ -24376,16 +22197,16 @@
       <c r="A3" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="B3" s="97">
+      <c r="B3" s="87">
         <v>18</v>
       </c>
       <c r="C3" s="1">
         <v>29</v>
       </c>
-      <c r="D3" s="97">
+      <c r="D3" s="87">
         <v>2</v>
       </c>
-      <c r="E3" s="97">
+      <c r="E3" s="87">
         <v>5</v>
       </c>
     </row>
@@ -24393,16 +22214,16 @@
       <c r="A4" s="69" t="s">
         <v>242</v>
       </c>
-      <c r="B4" s="97">
+      <c r="B4" s="87">
         <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="97">
+      <c r="D4" s="87">
         <v>2</v>
       </c>
-      <c r="E4" s="97">
+      <c r="E4" s="87">
         <v>0</v>
       </c>
     </row>
@@ -24410,16 +22231,16 @@
       <c r="A5" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="B5" s="97">
+      <c r="B5" s="87">
         <v>44</v>
       </c>
       <c r="C5" s="1">
         <v>35</v>
       </c>
-      <c r="D5" s="97">
+      <c r="D5" s="87">
         <v>60</v>
       </c>
-      <c r="E5" s="97">
+      <c r="E5" s="87">
         <v>59</v>
       </c>
     </row>
@@ -24427,16 +22248,16 @@
       <c r="A6" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="B6" s="98">
+      <c r="B6" s="88">
         <v>0.28125</v>
       </c>
-      <c r="C6" s="98">
+      <c r="C6" s="88">
         <v>0.453125</v>
       </c>
-      <c r="D6" s="98">
+      <c r="D6" s="88">
         <v>3.125E-2</v>
       </c>
-      <c r="E6" s="98">
+      <c r="E6" s="88">
         <v>7.8125E-2</v>
       </c>
     </row>
@@ -24444,16 +22265,16 @@
       <c r="A7" s="69" t="s">
         <v>242</v>
       </c>
-      <c r="B7" s="99">
+      <c r="B7" s="89">
         <v>3.125E-2</v>
       </c>
-      <c r="C7" s="99">
+      <c r="C7" s="89">
         <v>0</v>
       </c>
-      <c r="D7" s="99">
+      <c r="D7" s="89">
         <v>3.125E-2</v>
       </c>
-      <c r="E7" s="99">
+      <c r="E7" s="89">
         <v>0</v>
       </c>
     </row>
@@ -24461,16 +22282,16 @@
       <c r="A8" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="90">
         <v>0.6875</v>
       </c>
-      <c r="C8" s="100">
+      <c r="C8" s="90">
         <v>0.546875</v>
       </c>
-      <c r="D8" s="100">
+      <c r="D8" s="90">
         <v>0.9375</v>
       </c>
-      <c r="E8" s="100">
+      <c r="E8" s="90">
         <v>0.921875</v>
       </c>
     </row>
